--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -3,17 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33100F08-5293-4AC9-8206-1C1244A5DE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC88A6-91FC-465A-B999-EFA45AEAC3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="6165" windowWidth="13200" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15315" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -379,13 +387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC88A6-91FC-465A-B999-EFA45AEAC3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB84D7E-D325-4F17-AB7B-C3FC5328FE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15315" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="90" windowWidth="19335" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="688">
   <si>
     <t>title</t>
   </si>
@@ -52,13 +52,2139 @@
   </si>
   <si>
     <t>more_info</t>
+  </si>
+  <si>
+    <t>Bạn đang ở đây 95k</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Nicholas Crane</t>
+  </si>
+  <si>
+    <t>Bạn Đang Ở Đây: Cuốn Sách Ngắn Về Thế Giới là cuốn sách giúp chúng ta nhìn nhận lại về địa lý, một môn học, một chuyên ngành xưa cũ và trong nhiều năm trở lại đây đã đứng trước những nghi vấn về sự cần thiết, hữu dụng trong cuộc sống sau này của học sinh, sinh viên, nhất là trước cơn lũ trào lưu công nghệ và trí tuệ nhân tạo. Cuốn sách này có thể giúp bạn hiểu được tại sao địa lý, cùng những môn cơ bản như lịch sử… lại cần thiết cho việc củng cố nền tảng tư duy cho con người từ tấm bé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SBA0004</t>
+  </si>
+  <si>
+    <t>Yến Hội 135k</t>
+  </si>
+  <si>
+    <t>Kinh điển</t>
+  </si>
+  <si>
+    <t>Platon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tác phẩm gồm 2 phần Yến hội và Phaedrus dành cho những ai quan tâm tới văn học – triết học Hy-La cổ đại. Nếu như Yến Hội dành cho những người tò mò muốn biết người xưa nhìn nhận ra sao về tình yêu, nhất là tình yêu đồng tính thì Phaedrus là triết phẩm phù hợp với bất kỳ ai muốn học hỏi thuật hùng biện từ các triết gia. </t>
+  </si>
+  <si>
+    <t>SBA0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trò chơi và thú tiêu khiển của người Huế 139k </t>
+  </si>
+  <si>
+    <t>Lịch sử Việt Nam</t>
+  </si>
+  <si>
+    <t>Trần Đức Anh Sơn</t>
+  </si>
+  <si>
+    <t>Cuốn sách nghiên cứu, trình bày và phân tích các trò chơi, thú tiêu khiển truyền thống của người dân Huế. Sách gồm ba phần chính: Trò chơi và thú tiêu khiển mang tính cộng đồng ; trò chơi và thú tiêu khiển mang tính hội nhóm ; trò chơi và thú tiêu khiển mang tính cá nhân. Ngoài ra, còn có 6 phần phụ lục cung cấp thêm các thông tin như về các bài bản ca Huế; 48 đề thả thơ; 160 đề đố thơ; những bộ đầu hồ; hai bộ xăm hường và trò xăm hường; các trò chơi của trẻ em xứ Huế.</t>
+  </si>
+  <si>
+    <t>SBA0050</t>
+  </si>
+  <si>
+    <t>Thời khắc tươi đẹp 159k</t>
+  </si>
+  <si>
+    <t>văn học</t>
+  </si>
+  <si>
+    <t>Nina Rigg</t>
+  </si>
+  <si>
+    <t>Một cuốn hồi ký tuyệt vời về sự sống và cái chết, từ nhà thơ Nina Riggs, mẹ của hai đứa con trai và hậu duệ trực hệ của tác gia Ralph Waldo Emerson.</t>
+  </si>
+  <si>
+    <t>SBA0074</t>
+  </si>
+  <si>
+    <t>Mọi chuyện trên đời đều có nguyên do 109k</t>
+  </si>
+  <si>
+    <t>Kate Bowler</t>
+  </si>
+  <si>
+    <t>“Mọi chuyện trên đời đều có nguyên do?” là hành trình đi tìm ý nghĩa cuộc đời của một bệnh nhân ung thư.</t>
+  </si>
+  <si>
+    <t>SBA0075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lẽ thường 99k </t>
+  </si>
+  <si>
+    <t>Thomas Paine</t>
+  </si>
+  <si>
+    <t>Trong Lẽ thường, Thomas Paine phân tích thực trạng, hoàn cảnh và quan hệ của các Thuộc địa đối với nước Anh. Với lý luận chặt chẽ và văn chương nghị luận sắc bén, ông đã giúp cho người dân Mỹ ở thuộc địa nhìn rõ vấn đề và chọn cho mình hướng đi đúng đắn. Tác giả dùng văn phong và từ ngữ giản dị để trình bày những vấn đề phức tạp thuộc về triết học, tôn giáo và chính trị nhằm vào đối tượng chính là đại chúng. Lẽ thường còn ảnh hưởng đến việc soạn thảo Tuyên ngôn Độc lập của Mỹ vào tháng Bảy năm 1776.</t>
+  </si>
+  <si>
+    <t>SBA0126</t>
+  </si>
+  <si>
+    <t>Thần thoại Hy Lạp 139k</t>
+  </si>
+  <si>
+    <t>Phan Ngọc</t>
+  </si>
+  <si>
+    <t>Thần Thoại Hy Lạp bao gồm những chuyện có tính chất hoang đường về nguồn gốc vũ trụ, loài người, giải thích các hiện tượng tự nhiên, xã hội, lịch sử các thành bang và bộ tộc Hy Lạp, đồng thời kể lại những sự tích về các anh hùng cổ xưa của đất nước Hy Lạp</t>
+  </si>
+  <si>
+    <t>SBA0131</t>
+  </si>
+  <si>
+    <t>Phono Sapiens - Loài người mới sinh ra từ điện thoại thông minh 159k</t>
+  </si>
+  <si>
+    <t>Lịch sử Thế giới</t>
+  </si>
+  <si>
+    <t>Jae Boong Choi</t>
+  </si>
+  <si>
+    <t>Cuộc Cách mạng Công nghiệp lần thứ tư mang đến nhiều thay đổi đột phá về công nghệ và cách con người ứng dụng công nghệ trong đời sống hằng ngày. Đồng hành với những thế hệ cũ, có một thế hệ mới được lớn lên, giáo dục và trưởng thành cùng những thiết bị thông minh và những nền tảng như Facebook, Google, Youtube, v.v. để không chỉ giải trí, kết nối mà còn dần định hình tính cách phát triển của họ cùng với xã hội. Thế hệ mới này được đặt cho một cái tên là Phono Sapiens – loài người mới trưởng thành cùng chiếc điện thoại thông minh trong nền văn minh kỹ thuật số, coi nó là một phần không thể thiếu của cơ thể.</t>
+  </si>
+  <si>
+    <t>SBA0140</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Khuyến học 129k</t>
+  </si>
+  <si>
+    <t>Nhật Bản</t>
+  </si>
+  <si>
+    <t>Fukuzawa Yukichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đây là một trong những tác phẩm có ảnh hưởng sâu rộng nhất với người dân Nhật Bản.Trong cuốn sách này, Fukuzawa Yukichi đề cập tinh thần cơ bản của con người và mục đích thực thụ của học vấn. Với các chương viết về sự bình đẳng, quyền con người, ý nghĩa của nền văn học mới, trách nhiệm của nhân dân và chính phủ trong một quốc gia pháp trị khuyến học đã làm lay chuyển tâm lý người Nhật Bản dưới thời Minh Trị. </t>
+  </si>
+  <si>
+    <t>SBA0133</t>
+  </si>
+  <si>
+    <t>Vũ trụ từ hư không 145k</t>
+  </si>
+  <si>
+    <t>Vật lý</t>
+  </si>
+  <si>
+    <t>Lawrence M. Krauss</t>
+  </si>
+  <si>
+    <t>Vũ Trụ Từ Hư Không được hình thành từ nhãn quan nghiêm túc của một nhà khoa học, với bút pháp hóm hỉnh uyển chuyển của một nhà văn, xứng đáng là một tác phẩm xuất sắc trong mạch văn của Krauss, và làm say sưa bất kỳ người đọc nào.</t>
+  </si>
+  <si>
+    <t>SBA0173</t>
+  </si>
+  <si>
+    <t>Trật tự thời gian 109k</t>
+  </si>
+  <si>
+    <t>Carlo Rovelli</t>
+  </si>
+  <si>
+    <t>Với sự quyến rũ phi thường, kết hợp khoa học, triết học và nghệ thuật, Carlo Rovelli đã làm sáng tỏ bí ẩn về thời gian và minh chứng rằng "vật lý cũng có thể cất lên những vần thơ".</t>
+  </si>
+  <si>
+    <t>SBA0174</t>
+  </si>
+  <si>
+    <t>7 Bài học hay nhất về vật lý 69k</t>
+  </si>
+  <si>
+    <t>Cuốn sách 7 Bài Học Hay Nhất Về Vật Lý là một bản tổng kết nhanh những tri thức quan trọng đã tạo nên cuộc cách mạng vĩ đại trong nền vật lý thế kỷ XX như thuyết tương đối rộng, cơ học lượng tử, vũ trụ học, hạt cơ bản, lý thuyết hấp dẫn lượng tử, hố đen. Cuốn sách cũng đề cập đến ý nghĩa của tất cả những tri thức ấy với nhận thức của con người ngày nay.
+Trong ấn bản tiếng Italia, cuốn sách đã bán được hơn 300.000 bản, và giờ đã được dịch ra 28 thứ tiếng. Được Independent, Economist, Telegraph, Guardian, New Scientist, Evening Standard bình chọn là cuốn sách hay nhất của năm 2015.</t>
+  </si>
+  <si>
+    <t>SBA0175</t>
+  </si>
+  <si>
+    <t>Đề Thám (1846 - 1913) 159k</t>
+  </si>
+  <si>
+    <t>Claude Gendre</t>
+  </si>
+  <si>
+    <t>Đương thời, vẫn còn nhiều người sống sót từ cuộc chiến mà người Pháp gọi là “Chiến tranh Đông Dương”, diễn ra từ năm 1945 đến năm 1953, đặc biệt là những quân nhân đã “đi Đông Dương” và đã giữ lại trong mình ký ức của những trận đánh trên đường số 4 hay ở Điện Biên Phủ. Tất cả, quân nhân hay dân sự, chắc chắn đều nghe nói đến Hồ Chí Minh, lúc đó cũng như mãi mãi, như một hình tượng ái quốc của dân tộc Việt Nam. Nhưng thời kỳ cuối thế kỷ XIX đến đầu thế kỷ XX dường như đã tan vào màn đêm của thời gian và cũng chẳng còn những chứng nhân sống sót, trong khi đó chính là thời kỳ quyết định đến thái độ quan hệ với nhau sau này giữa kẻ chiếm hữu thuộc địa và người dân thuộc địa. Và cũng có “hình tượng” của mình, một anh hùng dân tộc người An Nam, đầu lĩnh giặc cỏ đối với chính quyền Pháp: Hoàng Hoa Thám, được gọi là Đề Thám.
+Từ căn cứ bất khả xâm phạm của mình ở vùng thượng Yên Thế, vùng đất cỏ cây dày đặc và địa hình lượn sóng cách Hà Nội khoảng năm mươi cây số về phía bắc, trong một phần tư thế kỷ ông đương đầu với những đội quân Pháp đông hơn quân của ông gấp hai mươi lần. Chưa bại trận trên chiến trường, cái chết của ông vào năm 1913 là kết quả của hoạt động mật thám, thành công nhờ vào những kẻ phản bội.
+Chỉ là một chú bé chăn trâu thời thơ ấu, trong chiến đấu ông chứng tỏ mình là một chiến lược gia đáng sợ và là một chiến thuật gia không kém phần giỏi giang, đến mức nửa thế kỷ sau đội quân Việt Minh đã học tập cách chiến đấu của ông.
+Sinh thời, những người ngưỡng mộ Đề Thám đặt biệt danh cho ông là “hùm thiêng Yên Thế” do sự khéo léo và dũng mãnh của ông. Người ta có thể đọc thấy điều đó qua ngòi bút của một sĩ quan Pháp trong đội quân lê dương khi đến lượt anh ta phải đương đầu với ông: “Cuối cùng, cũng như rất nhiều người khác, tôi truy đuổi Đề Thám, tên phỉ đáng ngưỡng mộ [nguyên văn], kẻ mà những người bản xứ gọi là Ngài vì ông châm đốt Pháp không dứt và biến mất như lọt qua kẽ ngón tay mỗi khi người Pháp dồn đuổi ông!”
+Ngày nay, tên ông không chỉ được đặt cho một trong những con phố dài nhất Hà Nội, những chiến công của ông đã lùi sâu trong dĩ vãng song kỷ niệm về người anh hùng yêu nước của Việt Nam vẫn còn lại, sống động trong ký ức của con người Việt Nam.</t>
+  </si>
+  <si>
+    <t>SBA0179</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Cổ học tinh hoa 189k</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ngọc, Trần Lê Nhân</t>
+  </si>
+  <si>
+    <t>Với tấm lòng mong muốn giữ gìn những gì gọi là hồn cốt của dân tộc, hai tác giả Ôn Như Nguyễn Văn Ngọc và Tử An Trần Lê Nhân đã lưu lại những câu chuyện quý trong tác phẩm “Cổ học tinh hoa” để chúng ta soi mình và nhìn đời sáng suốt hơn. Cuốn sách bao gồm bao gồm 250 mẩu chuyện, được hai vị học giả thâu lượm và biên soạn lại chủ yếu từ các tích xưa, các sách kinh điển của Trung Hoa thời cổ.</t>
+  </si>
+  <si>
+    <t>SBA0192</t>
+  </si>
+  <si>
+    <t>ISMS - Hiểu về nghệ thuật hiện đại 239k</t>
+  </si>
+  <si>
+    <t>Nghệ thuật</t>
+  </si>
+  <si>
+    <t>Sam Phillips</t>
+  </si>
+  <si>
+    <t>Cuốn sách này là một cẩm nang ngắn gọn giới thiệu cho bạn đọc về 55 trào lưu, trường phái và phong cách thịnh hành từ thời kỳ bình minh hé sáng của nghệ thuật hiện đại cuối thế kỷ 19 cho đến nay, nhằm giúp các bạn làm quen và tiếp cận được một nhánh của dòng chảy lịch sử nghệ thuật.</t>
+  </si>
+  <si>
+    <t>SBA0193</t>
+  </si>
+  <si>
+    <t>Xã hội tỉnh táo 268k</t>
+  </si>
+  <si>
+    <t>Tâm lý học</t>
+  </si>
+  <si>
+    <t>Erich Fromm</t>
+  </si>
+  <si>
+    <t>Trong “Xã hội tỉnh táo”, Fromm phê bình và phân tích tâm lý xã hội tư bản công nghiệp hiện đại và những công dân nhất định bị tha hóa của nó. Nhưng hơn thế, ông cũng đưa ra những gợi ý để vận hành một xã hội lành mạnh, tỉnh táo — ý tưởng rằng “tiến bộ chỉ có thể xảy ra khi đồng thời thay đổi các lĩnh vực kinh tế, xã hội-chính trị và văn hóa; nếu chỉ giới hạn tiến bộ trong một lĩnh vực tức là hủy hoại tiến bộ ở mọi lĩnh vực”.</t>
+  </si>
+  <si>
+    <t>SBA0196</t>
+  </si>
+  <si>
+    <t>Tâm lý học đám đông 149k</t>
+  </si>
+  <si>
+    <t>Gustane Le Bon</t>
+  </si>
+  <si>
+    <t>Kể từ khi xuất bản lần đầu tại Việt Nam, cuốn sách này đã được tái bản lại rất nhiều lần.
+Tác giả Gustave Le Bon (1841 - 1931) là nhà tâm lí học xã hội nổi tiếng người Pháp với lí thuyết về đám đông. Ông viết về nhiều lĩnh vực và có ảnh hưởng rất lớn trong xã hội Pháp đương thời. Những tác phẩm nền tảng nhất của Le Bon là Quy luật tâm lí về sự tiến hoá của các dân tộc (Les Lois psychologiques de l’évolution des peuples, 1894), Cách mạng Pháp và tâm lí học về các cuộc cách mạng (La Révolution française et la psychologie des révolutions, 1912) và Tâm lí học đám đông (La Psychologie des foules, 1895).</t>
+  </si>
+  <si>
+    <t>SBA0197</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Chàng hải âu kỳ diệu 109k</t>
+  </si>
+  <si>
+    <t>Thiếu nhi</t>
+  </si>
+  <si>
+    <t>Richard Bach</t>
+  </si>
+  <si>
+    <t>Cuốn truyện  của nhà văn nổi tiếng người Mỹ - Richard Bach sẽ kể cho chúng ta về cuộc đời của Jonathan, một chàng hải âu mà niềm say mê bay lớn hơn tất cả mọi thứ khác trên đời. Những khó khăn không làm chàng nản chí, vì sự thật là những con hải âu khác sẽ không bao giờ biết được vẻ đẹp và cảm giác vĩ đại khi bay. Qua cuộc hành trình của mình, chàng hải âu học được một điều: “Thiên Đường không phải là nơi chốn, mà cũng không phải thời gian. Thiên Đường là trạng thái khi ta đạt được toàn thiện”...</t>
+  </si>
+  <si>
+    <t>SBA0198</t>
+  </si>
+  <si>
+    <t>Unstoppable us - Không thể dừng bước tập 1: Loài người chinh phục thế giới như thế nào 269k</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari</t>
+  </si>
+  <si>
+    <t>“Unstoppable Us – Không thể dừng bước”: câu chuyện kinh điển về Sapiens – giống loài quyền lực nhất hành tinh - là bộ sách mà tác giả Yuval Noah Harari muốn đưa kiến thức lịch sử đến với các độc giả nh</t>
+  </si>
+  <si>
+    <t>SBA0199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SBA0201</t>
+  </si>
+  <si>
+    <t>SBA0202</t>
+  </si>
+  <si>
+    <t>SBA0203</t>
+  </si>
+  <si>
+    <t>SBA0204</t>
+  </si>
+  <si>
+    <t>SBA0205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SBA0206</t>
+  </si>
+  <si>
+    <t>SBA0207</t>
+  </si>
+  <si>
+    <t>SBA0208</t>
+  </si>
+  <si>
+    <t>SBA0209</t>
+  </si>
+  <si>
+    <t>SBA0210</t>
+  </si>
+  <si>
+    <t>SBA0211</t>
+  </si>
+  <si>
+    <t>SBA0212</t>
+  </si>
+  <si>
+    <t>SBA0213</t>
+  </si>
+  <si>
+    <t>SBA0214</t>
+  </si>
+  <si>
+    <t>SBA0215</t>
+  </si>
+  <si>
+    <t>Ngăn 1</t>
+  </si>
+  <si>
+    <t>Quản trị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bộ sách Havard Business Review
+- Quyển 1: Lãnh đạo </t>
+  </si>
+  <si>
+    <t>Bộ sách Havard Business Review - Quyển 2: Marketing chiến lược</t>
+  </si>
+  <si>
+    <t>Bộ sách Havard Business Review - Quyển 3: Đổi mới sáng tạo</t>
+  </si>
+  <si>
+    <t>Bộ sách Havard Business Review - Quyển 4: Chiến lược</t>
+  </si>
+  <si>
+    <t>Bộ sách Havard Business Review - Quyển 5: Truyền thông giao tiếp</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 1: Thuyết trình hiệu quả</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 2: Ủy thác công việc</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 3: Phân tích tài chính</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 4: Hội họp hiệu quả</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 5: Lập kế hoạch kinh doanh</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 6: Quản lý sếp</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 7: Giải quyết mọi việc</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 8: Phản hồi hiệu quả</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 9: Quản lý dự án</t>
+  </si>
+  <si>
+    <t>Bộ sách 20 - Minute Manager - Quyển 10: Làm chủ thời gian</t>
+  </si>
+  <si>
+    <t>Trên đường đến những chuẩn mực khoa học 159k</t>
+  </si>
+  <si>
+    <t>Nhiều Tác Giả</t>
+  </si>
+  <si>
+    <t>“Trên đường đến những chuẩn mực khoa học” là cuốn đầu tiên trong chuỗi một số ấn phẩm ra mắt nhân dịp kỷ niệm ba mươi năm ra đời của Tạp chí Tia Sáng, do Ban biên tập tạp chí tập hợp các bài viết và biên soạn thành.</t>
+  </si>
+  <si>
+    <t>SBA0001</t>
+  </si>
+  <si>
+    <t>Nghi thức tang lễ của người An Nam 189k</t>
+  </si>
+  <si>
+    <t>Gustave Dumoutier</t>
+  </si>
+  <si>
+    <t>Nghi thức này là việc nhà có tang sẽ mổ lợn, mổ bò, làm mấy chục đến mấy trăm mâm cỗ, tùy theo gia cảnh để mời những người đến phúng viếng và đưa tang. Cách giải thích đưa ra tôi thấy khá hợp lý, dù vẫn tin rằng đến thời điểm hiện tại có thể giản lược, thay bằng nói lời cảm ơn và mời chén nước, miếng trầu.</t>
+  </si>
+  <si>
+    <t>SBA0045</t>
+  </si>
+  <si>
+    <t>Nhật Bản và Việt Nam là " Đồng minh tự nhiên" 159k</t>
+  </si>
+  <si>
+    <t>Umeda Kunio</t>
+  </si>
+  <si>
+    <t>Trong bối cảnh quốc tế ngày một căng thẳng với nhiều diễn biến khó lường, việc tăng cường liên kết giữa Nhật Bản và Việt Nam vì hòa bình và ổn định của khu vực đã trở nên vô cùng quan trọng. Cuốn sách còn phân tích chi tiết sự tiến triển trong quan hệ kinh tế, chính trị, văn hóa của hai nước và thuật lại nhiều giai thoại thú vị về những người Nhật và người Việt đã đóng góp vào sự phát triển của quan hệ hai nước.</t>
+  </si>
+  <si>
+    <t>SBA0063</t>
+  </si>
+  <si>
+    <t>Giấc mơ Việt Nam tôi T2: Còn mãi hương xa 239k</t>
+  </si>
+  <si>
+    <t>Văn học</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Hưng</t>
+  </si>
+  <si>
+    <t>Còn mãi hương xa là tập 2 của Giấc mơ Việt Nam tôi. Nếu như bạn đọc đã thấy được ở tập 1: Đi xa về gần cả một hành trình dài từ những ngày nung nấu giấc mơ ấy đến những bước đi nhỏ trên con đường đầy gập ghềnh, khó khăn cho đến những thành quả được cả hai chính phủ Bỉ và Việt Nam công nhận; thấy được một con người luôn đau đáu với Giấc mơ Việt Nam, đau đáu góp mình cho sự nghiệp giáo dục, khoa học Việt Nam; thì ở tập 2 này, vẫn giấc mơ ấy, vẫn những trăn trở ấy, nhưng khi rõ ràng trên câu chữ, thông qua những cảm nghiệm trên con đường làm khoa học, làm giáo dục vì Việt Nam của ông; khi lại ẩn hiện qua những tản mạn về văn hóa - xã hội - đời sống những nơi đã qua, những con người đã gặp, đã gắn bó, thuộc nhiều nước trên thế giới; về nhiều con người tài hoa, có đức có tài đóng góp cho đất nước Việt Nam. Qua đó, chắc hẳn bạn đọc đã thấy trọn vẹn hơn cả giấc mơ mang tên Việt Nam của tác giả Nguyễn Đăng Hưng.</t>
+  </si>
+  <si>
+    <t>SBA0072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuộc đời bất tử của Henrietta Lacks 269k </t>
+  </si>
+  <si>
+    <t>y học</t>
+  </si>
+  <si>
+    <t>Rebecca Skloot</t>
+  </si>
+  <si>
+    <t>Cuốn sách kể câu chuyện về tế bào HeLa của một người phụ nữ da màu đã qua đời vì căn bệnh ung thư. Nhưng những tế bào được lấy từ cổ tử cung của Henrietta Lacks năm 1951 đã tạo nên cuộc cách mạng trong ngành y học.</t>
+  </si>
+  <si>
+    <t>SBA0079</t>
+  </si>
+  <si>
+    <t>Marco Polo - Từ Venice tới Thượng Đô (BM) 239k</t>
+  </si>
+  <si>
+    <t>Laurence Bergreen</t>
+  </si>
+  <si>
+    <t>Bản thân Marco Polo đã là cái tên quen thuộc với những người quan tâm tới lịch sử thế giới nói chung và thích khám phá về mặt địa lý, văn hóa nói riêng. Ông là nhân vật truyền cảm hứng và “dẫn lối” cho Christopher Columbus. Song, sách viết về Marco Polo chưa có nhiều phiên bản tiếng Việt ở Việt Nam.</t>
+  </si>
+  <si>
+    <t>SBA0138</t>
+  </si>
+  <si>
+    <t>Người châu Á có biết tư duy? 169k</t>
+  </si>
+  <si>
+    <t>Kishore Mahbubani</t>
+  </si>
+  <si>
+    <t>Châu Á là lục địa lớn nhất thế giới, là trung tâm tâm linh với các tôn giáo lớn như Hồi giáo, Phật giáo, Khổng giáo và Hindu giáo và là nơi trú chân của 60% bộ phận dân số trên Trái đất. Các nền kinh tế châu Á sắp vượt mặt châu Âu và Bắc Mỹ trong 50 năm tới, thế nhưng người phương Tây vẫn không có nhiều động thái thay đổi thái độ của mình dưới ánh sáng của những hiện thực đó.
+Để tránh “sự va chạm giữa các nền văn minh”, Mahbubani tin rằng tất cả các bên liên quan sẽ cần rất nhiều sự tự nhìn nhận lại mình. Phân tích về quá khứ và những dự đoán về tương lai là sự thức tỉnh đối với cả người Á lẫn người Âu.</t>
+  </si>
+  <si>
+    <t>SBA0139</t>
+  </si>
+  <si>
+    <t>Chúng tôi ăn rừng 249k</t>
+  </si>
+  <si>
+    <t>GS Georges Condominas</t>
+  </si>
+  <si>
+    <t>Ngược với điều ta có thể tưởng sau mấy thập kỷ đã qua, cuốn sách này đã được viết ra không phải để bảo vệ một luận án ở đại học, cũng chẳng  phải để thực hiện một tác phẩm văn học. Công  trình này chỉ đơn giản  là để đáp ứng mong ước trao gửi một thông điệp hữu nghị tối hậu.</t>
+  </si>
+  <si>
+    <t>SBA0148</t>
+  </si>
+  <si>
+    <t>Hành trình nhân loại: Nguồn gốc của thịnh vượng và bất bình đẳng 229k</t>
+  </si>
+  <si>
+    <t>Oded Galor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuốn sách “Hành trình nhân loại” là tổng hợp phần lớn thành quả nghiên cứu của tác giả với lý thuyết mới chưa từng xuất hiện về lịch sử loài người, được bổ sung bằng những nghiên cứu thực nghiệm và định lượng, với nhiều dữ liệu mới; với nhiều bảng biểu số liệu hấp dẫn. </t>
+  </si>
+  <si>
+    <t>SBA0189</t>
+  </si>
+  <si>
+    <t>Lược sử ngôn ngữ - Chuyện kể về phát minh vĩ đại nhất của loài người 239k</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ</t>
+  </si>
+  <si>
+    <t>Daniel L. Everett</t>
+  </si>
+  <si>
+    <t>Cuốn sách này phù hợp với những độc giả có hứng thú với lĩnh vực ngôn ngữ học, tò mò về nguồn gốc của ngôn ngữ, muốn biết làm thế nào mà con người có thể phát âm như hiện nay v.v...</t>
+  </si>
+  <si>
+    <t>SBA0195</t>
+  </si>
+  <si>
+    <t>Ngăn 2</t>
+  </si>
+  <si>
+    <t>Nghiên cứu bản đồ các cửa sông, hải cảng Việt Nam thế kỷ XV 109k</t>
+  </si>
+  <si>
+    <t>Công trình Nghiên cứu bản đồ các cửa sông, hải cảng Việt Nam thế kỷ XV, sau đây gọi tắt là Tập Hải đồ, gồm một tập 25 tờ chú thích và 24 tấm bản đồ nối tiếp từ Kinh thành Thăng Long đến cố đô Vương quốc Champa cùng với các phụ lục là hai Hành trình đường bộ và Hành trình đường thủy mà tác giả cho biết: “Đây là một tài liệu quân sự, được thiết lập dựa trên các thông tin thu thập được khoảng cuối thế kỷ XV của các phái viên do vua Lê Thánh Tông cử đi mật thám để vẽ chuẩn bị cho việc thôn tính Champa được thuận lợi.”</t>
+  </si>
+  <si>
+    <t>SBA0054</t>
+  </si>
+  <si>
+    <t>Chính trị luận 189k</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Chính trị luận của Aristotle là một tác phẩm nổi tiếng nhất nói về các khái niệm mà từ đó các quốc gia và chính phủ định hình. Mặc dù chỉ thảo luận về nhà nước và các định chế thời Hy Lạp cổ đại nhưng tác phẩm này của ông đã đặt nền tảng cho khoa học chính trị hiện đại.</t>
+  </si>
+  <si>
+    <t>SBA0130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoTao-Một lý thuyết về quyền lực ở người Jorai Đông Dương 268k </t>
+  </si>
+  <si>
+    <t>Jacques Dournes</t>
+  </si>
+  <si>
+    <t>Pötao, một lý thuyết về quyền lực ở người Jörai Đông Dương (Pötao, une théorie du pouvoir chez les Indochinois Jörai) là ấn phẩm thứ ba của Tủ sách Tây Nguyên do Công ty Cổ phần Sách Omega Việt Nam triển khai và thực hiện, một cuốn sách cần thiết cho sự hiểu biết về con người và xã hội Jörai (Giarai) nói riêng và Tây Nguyên nói chung.</t>
+  </si>
+  <si>
+    <t>SBA0142</t>
+  </si>
+  <si>
+    <t>Tọa độ : Cấu trúc gia đình và xã hội của người Jorai 229k</t>
+  </si>
+  <si>
+    <t>Tọa độ, cấu trúc gia đình và xã hội Jörai là một trong những tác phẩm vô cùng quan trọng về con người và vùng đất Tây Nguyên, được xuất bản năm 1972; ngay khi Jacques Dournes còn đang thực địa trong chính những bản làng của người Jörai. Đây là ấn bản tiếng Việt đầu tiên được xuất bản ở Việt Nam.</t>
+  </si>
+  <si>
+    <t>SBA0143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người Ê Đê - Một xã hội mẫu quyền 175k </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne de Hauteclocque-Howe </t>
+  </si>
+  <si>
+    <t>Người Ê Đê: Một xã hội mẫu quyền ban đầu là một công trình nghiên cứu dân tộc học được nhà nghiên cứu Anne de Hauteclocque thực hiện vào năm 1962 về thiết chế xã hội của người Ê Đê, đặc biệt nhấn mạnh vào lý giải sự ràng buộc giữa các thành phần dân cư trong một xã hội “mẫu quyền”.</t>
+  </si>
+  <si>
+    <t>SBA0145</t>
+  </si>
+  <si>
+    <t>Lịch sử tư tưởng Nhật Bản 169k</t>
+  </si>
+  <si>
+    <t>Thích Thiên Ân</t>
+  </si>
+  <si>
+    <t>Mọi người Việt Nam trong khi hãnh diện với nền văn hóa cổ truyền của dân tộc, và trong khi thiết tha với công cuộc phục hưng những tinh thần truyền thống của Đông phương - dù chúng ta vẫn niềm nở tiếp nhận thâu hóa các ngành văn minh kỹ nghệ Âu Mỹ - thì chúng ta không thể nào không nghiên cứu tìm hiểu đến những nước láng giềng, nhất là những nước cùng một nguồn gốc văn hóa với dân tộc chúng ta. Nhật Bản là một trong số các nước láng giềng ấy.</t>
+  </si>
+  <si>
+    <t>SBA0160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duy tân thập kiệt 159k </t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Lực</t>
+  </si>
+  <si>
+    <t>Trong Duy Tân thập kiệt - Mười nhân vật kiệt xuất của Minh Trị Duy tân, tác giả Nguyễn Tiến Lực chọn lọc ra mười nhân vật có công tích kiệt xuất đối với toàn bộ sự nghiệp Minh Trị Duy tân của Nhật Bản, kéo dài từ giữa thế kỷ XIX đến đầu thế kỷ XX.</t>
+  </si>
+  <si>
+    <t>SBA0161</t>
+  </si>
+  <si>
+    <t>Khái lược văn minh luận 159k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fukuzawa Yukichi </t>
+  </si>
+  <si>
+    <t>Khái lược văn minh luận là cuốn sách đặc biệt quan trong của Fukuzawa Kukichi – nhà tư tưởng của cuộc Canh Tân Minh Trị để hình thành nên đất nước Nhật Bản hiện đại. Fukuzawa Kukichi nêu những kiến giải của ông về văn minh hiện đại hầu như đối lập với lối tư duy thủ cựu Nho giáo của Nhật Bản lúc bấy giờ. Từ đó, ông trình bày mọi suy nghĩ về tiến trình phát triển của người Nhật để trở thành một quốc gia, một dân tộc văn minh. Và theo ông, độc lập quốc gia là mục tiêu, và văn minh hiện tại của nước Nhật là cách thức để đạt được mục tiêu đó.</t>
+  </si>
+  <si>
+    <t>SBA0162</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Không gia đình 319k</t>
+  </si>
+  <si>
+    <t>Hector Malot</t>
+  </si>
+  <si>
+    <t>Xuất hiện trên văn đàn từ thế kỉ 19, "Không gia đình" của văn hào Hector Malot là cuốn sách kinh điển về đề tài giáo dục thấm đượm hiện thực xã hội vô cùng lôi cuốn người đọc. Suốt một trăm năm qua, cuốn sách này đã thành người bạn thân thiết với thiếu nhi Pháp và người đọc trên toàn thế giới nay trở lại với diện mạo hoàn toàn mới. Nội dung câu chuyện nói về cuộc hành trình phiêu lưu của chú bé mồ côi Remi qua đó bạn sẽ cảm thấy được niềm tin mãnh liệt và tình yêu nồng nhiệt của nhân vật chính với cuộc sống; đồng thời thấy được ý chí kiên cường, cố gắng vượt lên những khó khăn, gian khổ của cậu bé nhỏ tuổi này.</t>
+  </si>
+  <si>
+    <t>SBA0164</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Cuộc phiêu lưu của thuyền trưởng Corcoran 219k</t>
+  </si>
+  <si>
+    <t>Alfred Assollant</t>
+  </si>
+  <si>
+    <t>Cuộc phiêu lưu của thuyền trưởng Corcoran là cuốn truyện đặc sắc do tiểu thuyết gia Assollant người Pháp viết về Ấn Độ - xứ sở huyền bí cách đây hơn hai thế kỷ nhưng đối với bạn đọc ngày nay vẫn còn rất nhiều điều mới lạ. Tác phẩm do Omega+ phát hành sử dụng bộ tranh minh họa đầy đủ của họa sĩ Alphonse de Neuville trong ấn bản xuất bản lần đầu năm 1867.</t>
+  </si>
+  <si>
+    <t>SBA0165</t>
+  </si>
+  <si>
+    <t>Gen Lịch sử và tương lai của nhân loại 365k</t>
+  </si>
+  <si>
+    <t>khoa học</t>
+  </si>
+  <si>
+    <t>Siddhartha Mukherjee</t>
+  </si>
+  <si>
+    <t>Cuốn sách của Siddhartha Mukherjee là câu chuyện về sự sinh thành, phát triển, và tương lai của "gen" - đơn vị cơ bản của di truyền, đơn vị cơ sở của tất cả thông tin sinh học, và là một trong những ý niệm có sức tác động nguy hiểm và lợi hại nhất trong lịch sử khoa học.</t>
+  </si>
+  <si>
+    <t>SBA0186</t>
+  </si>
+  <si>
+    <t>Súng, vi trùng và thép 339k</t>
+  </si>
+  <si>
+    <t>Jared Diamond</t>
+  </si>
+  <si>
+    <t>“Súng, vi trùng và thép: Định mệnh của các xã hội loài người” là cuốn sách khoa học phổ thông thứ hai và nổi tiếng nhất của Jared Diamond.</t>
+  </si>
+  <si>
+    <t>SBA0188</t>
+  </si>
+  <si>
+    <t>Ngăn 3</t>
+  </si>
+  <si>
+    <t>Đang cập nhật …</t>
+  </si>
+  <si>
+    <t>Sử ký Tư Mã Thiên 279k</t>
+  </si>
+  <si>
+    <t>Tư Mã Thiên</t>
+  </si>
+  <si>
+    <t>Sử Ký là một tác phẩm khó nhưng rất hay. Nó làm cho người đọc say mê và giáo dục họ rất nhiều. Nhưng vì nội dung phong phú, cách diễn đạt kín đáo nên phải đọc đi đọc lại nhiều lần mới thấy hết cái hay của nó. Dịch giả Phan Ngọc cố gắng dịch những chương tiêu biểu, chương nào dịch thì dịch trọn vẹn, chỉ lược bớt những đoạn ít quan trọng đối với văn học. Vì cách hành văn theo lối Xuân Thu rất xa lạ đối với chúng ta, nên dịch giả cố gắng chú thích, phân đoạn, tóm tắt để làm sao cho người đọc làm quen với tác phẩm một cách dễ dàng nhất.</t>
+  </si>
+  <si>
+    <t>SBA0006</t>
+  </si>
+  <si>
+    <t>Làn sóng thứ ba 289k</t>
+  </si>
+  <si>
+    <t>Alvin Toffler</t>
+  </si>
+  <si>
+    <t>Làn sóng thứ Ba xuất bản lần đầu năm 1980 là quyển thứ hai trong bộ ba tác phẩm làm nên tên tuổi của nhà tương lai học Alvin Toffler. Cuốn sách mô tả chi tiết quá trình chuyển đổi ở các nước phát triển, từ xã hội Thời đại Công nghiệp mà ông gọi là “Làn sóng thứ Hai”, sang xã hội Thời đại Thông tin – tức “Làn sóng thứ Ba”.</t>
+  </si>
+  <si>
+    <t>SBA0016</t>
+  </si>
+  <si>
+    <t>Cú sốc tương lai 246k</t>
+  </si>
+  <si>
+    <t>Cú sốc tương lai xuất bản năm 1970, là cụm từ ám chỉ những áp lực mà con người phải gánh chịu khi thế giới biến thành một cỗ máy công nghiệp cường độ cao trong tương lai. Cuốn sách với dung lượng thông tin đầy ắp và những dẫn chứng cụ thể, có sức thuyết phục, tác phẩm đã miêu tả, phân tích và nhận định về xã hội trong khung cảnh những đổi thay đến mức kỳ lạ, làm đảo lộn lối sống, cách nghĩ của con người từ xưa đến nay; rút ra những nhận định và đặc điểm của thời đại mà chúng ta đang sống. Đưa người đọc vượt qua những phát kiến hấp dẫn của "thời kỳ bùng nổ" để đến với những giải pháp nhiều mặt về vật chất và tinh thần, về khoa học tự nhiên và khoa học xã hội, về mỗi cá nhân và cả cộng đồng.</t>
+  </si>
+  <si>
+    <t>SBA0020</t>
+  </si>
+  <si>
+    <t>Định mệnh chiến tranh 246k</t>
+  </si>
+  <si>
+    <t>Graham Allison</t>
+  </si>
+  <si>
+    <t>Khi một cường quốc đang trỗi dậy đe dọa thế chỗ một cường quốc đang thống trị, hệ quả có khả năng xảy ra nhất chính là chiến tranh.
+Đề cập tới Chiến tranh Peloponnese từng tàn phá Hy Lạp cổ đại, sử gia Thucydides đã giải thích rằng: “Chính sự trỗi dậy của Athens và nỗi sợ hãi mà nó gây ra ở Sparta đã khiến chiến tranh trở thành điều tất yếu.” Tình trạng tương tự đã xảy ra 16 lần trong suốt 500 năm qua. Và 12 lần đã kết thúc trong bạo lực.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0022
+</t>
+  </si>
+  <si>
+    <t>An tĩnh xưa 219k</t>
+  </si>
+  <si>
+    <t>Hippolyte Le Breton</t>
+  </si>
+  <si>
+    <t>Ngoài phần giới thiệu, mở đầu và kết luận, tác phẩm có hai Đề mục lớn (một số bản dịch khác gọi là Thiên); riêng Đề mục 2 có đến tám chương. Đây thực sự là một công trình đồ sộ về tư liệu; khoa học về phương pháp nghiên cứu, diễn giải, và nhất là về tâm huyết, trí tuệ, như ông đã tự dẫn câu của chính mình làm đề từ: “Hiểu tức là yêu thương; yêu thương tức là hiểu. Hai lời lẽ này dựa vào nhau, cần biết gắn lại với nhau bằng một bàn tay khỏe mạnh và khéo léo”. Khi tiếp xúc với tác phẩm này, nhiều người đã khẳng định ngay giá trị không thể chối cãi của nó.</t>
+  </si>
+  <si>
+    <t>SBA0038</t>
+  </si>
+  <si>
+    <t>Nhật Bản qua lăng kính người Việt đầu thế kỷ XX 229K</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Sơn</t>
+  </si>
+  <si>
+    <t>Kể từ sau cuộc Minh Trị duy tân thành công, người Việt đã có mối quan tâm đến Nhật Bản nhiều hơn, điều đó cũng được thể hiện qua các bài viết về Nhật Bản được đăng trên báo chí hồi đầu thế kỷ XX. Hầu hết các bài viết dù khảo cứu, dịch thuật… bất kỳ vấn đề gì, thì dung lượng dành cho thời kỳ Minh Trị duy tân vẫn là nhiều nhất, thậm chí có những bài chuyên bàn về vấn đề tài chính hay hiến pháp thời kỳ Duy tân. Ngoài những lời ca tụng có cánh dành cho công cuộc duy tân của Nhật Bản thì đi sâu vào từng vấn đề cụ thể các tác giả người Việt cũng có sự phê phán, chê trách một vài vấn đề trong thực tiễn quá trình triển khai Duy tân của Nhật Bản. Thậm chí còn từ những lỗi lầm, những vấn đề đáng phê phán đó mà kêu gọi và chỉ ra cho độc giả nhằm khuyên răn nên tránh đi vào những vết xe đổ Nhật đã gặp phải.</t>
+  </si>
+  <si>
+    <t>SBA0065</t>
+  </si>
+  <si>
+    <t>Giới tinh hoa quyền lực 259k</t>
+  </si>
+  <si>
+    <t>Wright Mills</t>
+  </si>
+  <si>
+    <t>Khi lần đầu ra mắt độc giả cách đây 50 năm, Giới tinh hoa quyền lực như một quả bom nổ tung giữa nền văn hóa vốn đã không còn lành lặn bởi nỗi lo âu hiện sinh và sự sợ hãi chính trị. […] Cuốn sách có thể nói là một cuộc luận chiến gay gắt chống lại “chủ nghĩa đa nguyên lãng mạn” vốn gắn chặt trong lý thuyết phổ biến của nền chính trị Mỹ. (John H. Summers, The New York Times)</t>
+  </si>
+  <si>
+    <t>SBA0129</t>
+  </si>
+  <si>
+    <t>Picasso và bức tranh khiến thế giới sửng sốt (BC) 399k</t>
+  </si>
+  <si>
+    <t>Miles J. Unger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picasso thường được biết đến như một thiên tài, một bậc thầy sáng tạo của thế kỷ 20 vì tên tuổi ông gắn liền với sự ra đời của trường phái Lập thể – bước chuyển đột phá trong dòng chảy nghệ thuật nói chung và Nghệ thuật Hiện đại nói riêng. Chủ nghĩa Lập thể phá vỡ nguyên tắc tạo hình truyền thống của hội họa từ hàng thế kỷ trước, khiến những hình khối, mảnh ghép và góc cạnh của đối tượng được trưng bày dưới lăng kính không-thời gian trên mặt phẳng tranh, mà bức tranh Những cô nàng ở Avignon đầy táo bạo đã đánh dấu thời khắc ấy. </t>
+  </si>
+  <si>
+    <t>SBA0156</t>
+  </si>
+  <si>
+    <t>Tự bạch 258k</t>
+  </si>
+  <si>
+    <t>Thánh Augustine</t>
+  </si>
+  <si>
+    <t>TỰ BẠCH (tên tiếng anh là Confessions) là một cuốn sách kinh điển của Thánh Augustine - một nhà triết học, nhà thần học, và là một trong những nhân vật quan trọng nhất của Kitô giáo. Cuốn sách này được viết vào thế kỷ thứ tư và được coi là một trong những tác phẩm kinh điển của văn học phương Tây. Dưới nghi thức thú tội quen thuộc thường gặp ở các tín đồ Kitô giáo, Tự Bạch ẩn chứa một cuộc trò chuyện thú vị và đầy sâu sắc giữa Thánh Augustine và Thiên Chúa. Không chỉ là chiêm nghiệm lại cuộc đời, kiểm điểm những lỗi lầm, mà còn gửi gắm những tìm sâu của Augustine về các tầng nghĩa sâu sắc đối với những gì ông nghiệm ra từ Kinh Thánh, về ký ức, về thời gian, về con người, về tình yêu (thánh thần).</t>
+  </si>
+  <si>
+    <t>SBA0169</t>
+  </si>
+  <si>
+    <t>Ngăn 4</t>
+  </si>
+  <si>
+    <t>Những đỉnh cao chỉ huy (bìa cứng) 429k</t>
+  </si>
+  <si>
+    <t>Kinh tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Yergin và Joseph Stanilaw </t>
+  </si>
+  <si>
+    <t>Những Đỉnh Cao Chỉ Huy cũng là một công trình được viết trong nỗi ám ảnh của sự giày vò đó. Nó cũng bàn về vấn đề nhà nước - thị trường. Như hàng ngàn cuốn sách khác, nó bàn về một trong những vấn đề lớn nhất, phức tạp nhất, gây nhiều phiền hà nhất, do đó, cũng là thú vị nhất của lịch sử phát triển nhân loại.
+Cuốn sách có nhiệm vụ trả lời những câu hỏi lớn của lịch sử hiện đại: Tại sao phải chuyển sang cơ chế thị trường ? Tại sao và như thế nào mà sự chuyển đổi từ kỷ nguyên, trong đó, chính phủ các quốc gia luôn tìm cách nắm giữ và kiểm soát nền kinh tế nhà nước sang kỷ nguyên với những ý tưởng về cạnh tranh, mở cửa, tư nhân hoá và bãi bỏ các phép tắc đã và đang thống trị tư tưởng kinh tế thế giới? Liệu những thay đổi này có phải là không thể đảo ngược? Chúng có phải là một phần của quá trình phát triển và tiến hoá liên tục? Hơn thế nữa kết quả và viễn cảnh chính trị, xã hội, kinh tế của sự thay đổi căn bản này trong mối quan hệ giữa chính phủ và thị trường là gì?
+Đối diện với loài người là một thế giới ngày càng toàn cầu hoá. Trong thế giới đó, không gian thu hẹp lại, thời gian được rút ngắn lại, các rào biên giới hạ thấp, và thế giới trở thành một ngôi làng. Khi đó, nền kinh tế thị trường vận hành với nhêìu quy tắc mới. Toàn cầu hoá, như các tác giả viết, là một thách thức đối với nhà nước. Vì vậy mà vai trò và chức năng của nhà nước chắc chắn cũng sẽ có những thay đổi mạnh mẽ. Quyền lực nhà nước bị giới hạn trong phạm vi quốc gia có thể sẽ xung đột với quá trình toàn cầu hoá các lĩnh vực của đời sống kinh tế - xã hội. Khí đó, câu hỏi đặt ra sẽ là những đỉnh cao chỉ huy mà các nhà nứơc - quốc gia luôn muốn chiếm lấy để khống chế nền kinh tế thị trường liệu có những giá trị nào? Nhà nước sẽ tham gia vào quá trình phát triển mang tính toàn cầu với những công cụ và phương cách nào?</t>
+  </si>
+  <si>
+    <t>SBA0014</t>
+  </si>
+  <si>
+    <t>Fryderyk Chopin: Cuộc đời và thời đại (BC) 499k</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Dựa trên mười năm nghiên cứu và một kho lưu trữ lớn các nguồn chính nằm trong các kho lưu trữ ở Warsaw, Paris, London, New York và Washington, DC, cuốn sách Fryderyk Chopin: A Life and Times đồ sộ của Alan Walker là cuốn tiểu sử toàn diện nhất về nhà soạn nhạc người Ba Lan vĩ đại. Có thể coi tác phẩm của Walker là một cuốn tiểu sử hiệu đính, nhằm xóa tan nhiều huyền thoại và truyền thuyết vẫn tiếp tục bao quanh Chopin. Cuốn sách là một cái nhìn sâu sắc về cuộc sống đầy kịch tính của nhà soạn nhạc; tập trung đặc biệt là thời thơ ấu và tuổi trẻ của Chopin ở Ba Lan, được đưa vào phù hợp với những phát hiện học thuật mới nhất được đưa vào một cách phù hợp, cũng như cuộc sống lãng mạn của Chopin với George Sand, người mà ông đã sống cùng trong chín năm.
+Toàn diện và hấp dẫn, được viết bằng một giọng văn dễ đọc, đây là một cuốn tiểu sử mang tính học thuật nhẹ nhàng: phù hợp với nghệ sĩ piano chuyên nghiệp cũng như dành cho những người yêu âm nhạc bình thường.</t>
+  </si>
+  <si>
+    <t>SBA0121</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher-Hồi ký bà đầm thép 480k</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher là nhân vật chính trị quyền lực nhất Vương quốc Anh vào cuối thế kỷ 20. Khó có vị thủ tướng nào trong thời hiện đại tìm cách thay đổi đất nước và vị thế của nó trên trường quốc tế một cách triệt để như bà từng làm. Đây là cuốn hồi ký về một phụ nữ phi thường kiêm chính trị gia lỗi lạc. Cuốn sách kể về những năm tháng trưởng thành, sự hình thành nhân cách và giá trị của bà, mô tả chi tiết những kinh nghiệm đã đưa bà đến đỉnh cao trong thế giới chính trị vốn chỉ dành cho đàn ông.</t>
+  </si>
+  <si>
+    <t>SBA0135</t>
+  </si>
+  <si>
+    <t>Michelangelo Sáu kiệt tác cuộc đời (BC) 299k</t>
+  </si>
+  <si>
+    <t>Miles J. Unger: Là một nhà viết tiểu sử được giới phê bình đánh giá cao, Miles J. Unger từng là cây bút đóng góp cho tờ The New York Times (1999 – 2010), và từng là biên tập quản lý nội dung của tạp chí Art New England (1996 – 2002). Hiện tại, Unger viết cho tạp chí The Economist với những bài viết về đề tài văn hóa nghệ thuật. Từng sống ở Florence suốt 5 năm, Miles Unger đã nghiên cứu và hoàn thành bộ sách về 3 nhân vật vĩ đại của lịch sử Florence thời kỳ Phục Hưng.</t>
+  </si>
+  <si>
+    <t>SBA0157</t>
+  </si>
+  <si>
+    <t>Machiavelli 249k</t>
+  </si>
+  <si>
+    <t>Miles J Unger</t>
+  </si>
+  <si>
+    <t>Dựa trên các nguồn tư liệu tiếng Ý quý giá và nguyên bản, cùng hiểu biết về Florence, Miles Unger đã viết ra một bản tiểu sử hấp dẫn và đáng tin cậy về một thiên tài - một nhà chính trị tài hoa bậc nhất thế kỷ XVI mà các tác phẩm của ông vẫn có giá trị đến tận ngày nay.</t>
+  </si>
+  <si>
+    <t>SBA0158</t>
+  </si>
+  <si>
+    <t>Red Nile - Tiểu sử của dòng sông vĩ đại nhất thế giới (BC) 399k</t>
+  </si>
+  <si>
+    <t>Robert Twigger</t>
+  </si>
+  <si>
+    <t>Cuốn sách là câu chuyện về những gì đã xảy ra trên và bên cạnh sông Nile - dòng sông dài nhất thế giới, bắt nguồn từ vùng núi Rwenzori và vùng cao nguyên của Ethiopia, vượt qua đầm lầy và sa mạc rộng lớn trước khi đổ ra Địa Trung Hải. Dòng sông như một chứng nhân lịch sử cho bao thăng trầm thay đổi của con người sinh sống dọc hai bên bờ sông từ thời cổ đại đến hiện đại.</t>
+  </si>
+  <si>
+    <t>SBA0187</t>
+  </si>
+  <si>
+    <t>Nam Kỳ và cư dân: Các tỉnh miền Đông (BC) 299k</t>
+  </si>
+  <si>
+    <t>J. C. Baurac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là tập thứ hai của bộ Nam kỳ và cư dân (tên tiếng Pháp: La Cochinchine et ses habitants) nên lần này tác giả Baurac đi thẳng vào việc giới thiệu các hạt thuộc miền Đông Nam kỳ.
+Các hạt này gồm: Mỹ Tho, Gò Công, Tân An [lưu ý là theo cách xếp của người Pháp, 3 địa phương này thuộc miền Đông Nam kỳ, khác với cách xếp của chúng ta ngày nay là thuộc miền Tây Nam bộ], Chợ Lớn, Gia Định, Thủ Dầu Một, Biên Hòa, Tây Ninh, Bà Rịa, Cap St-Jacques, Poulo-Condore [quần đảo Côn Lôn/Côn Đảo ngày nay].
+Các chương này được trình bày lớp lang theo bố cục: diện tích, ranh giới hành chính; liệt kê các tổng/làng/chợ/trung tâm hành chính-kinh tế quan trọng ở từng hạt, với những địa danh và nhân danh tạo điểm nhấn cho từng hạt, tác giả đều tìm tòi cách lý giải cho sự tích/huyền thoại liên quan, qua đó gián tiếp giúp người đọc có một hành trình xuyên không-thời gian tìm hiểu về vùng đất; nêu rõ ưu điểm cũng như những điểm bất lợi của từng địa phương đối với khả năng phát triển lâu dài. 
+</t>
+  </si>
+  <si>
+    <t>SBA0190</t>
+  </si>
+  <si>
+    <t>Nam Kỳ và cư dân: Các tỉnh miền Tây (BC) 299k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bác sĩ thuộc địa hạng nhất J.C. Baurac với bộ sách lừng danh về Nam kỳ, nay chính thức có bản Việt ngữ để độc giả và các nhà nghiên cứu sử dụng, tham khảo, trích dẫn…NAM KỲ VÀ CƯ DÂN: CÁC TỈNH MIỀN TÂY
+Với thời gian sống và làm việc lâu năm, phải thực địa sâu sát đến từng địa phương của Nam kỳ với lý do chuyên môn nghề nghiệp là bác sĩ, được tiếp xúc với người dân bản xứ và quan chức thuộc địa cả người An Nam lẫn người Pháp, ông đặc biệt thấu hiểu xứ sở thông qua hành trình tác nghiệp dọc theo hệ thống sông ngòi chằng chịt của vùng đất này, cùng với đó là khả năng tiếp cận những dữ liệu về dân cư, địa chí, các đặc điểm địa lý và tự nhiên, lịch sử… Các yếu tố này góp phần giúp tác giả Baurac xây dựng được 2 tập sách đồ sộ về Nam kỳ cuối thế kỷ XIX, với dày đặc thông tin và kèm theo những đánh giá về cơ hội phát triển của xứ Nam kỳ, những điều thiết tưởng vẫn còn hữu ích cho chúng ta ngày hôm nay.
+</t>
+  </si>
+  <si>
+    <t>SBA0191</t>
+  </si>
+  <si>
+    <t>Van Gogh: The life (BC) 789k</t>
+  </si>
+  <si>
+    <t>Steven Naifeh &amp; Gregory White Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuốn sách là một bản tiểu sử hết sức đầy đủ, chính xác và nghiêm cẩn với rất nhiều tranh minh họa và ảnh tư liệu về cuộc đời ngắn ngủi, dữ dội và thú vị của danh họa. Với tổng cộng 43 chương, hơn 1000 trang, có thể chia nội dung của cuốn sách thành 3 phần chính:
+Phần 1: NHỮNG NĂM ĐẦU ĐỜI (1853-1880): Tái hiện lại tuổi thơ Vincent khi còn là cậu bé kỳ lạ, ít nói, mải mê ở bãi hoang, ngắm nhìn chim muông cây cỏ rồi cô đơn nơi lớp học khi phải xa gia đình tới giai đoạn anh tin vào tiếng gọi cứu chuộc của Chúa với mong muốn đi truyền bá Phúc Âm, và đến khi anh tin rằng sự cứu chuộc của đời mình là trở thành một họa sĩ
+Phần 2: NHỮNG NĂM TẠI HÀ LAN (1880-1886): Kể về thời thanh thiếu niên với những khủng hoảng tuổi mới lớn về công việc, sự nghiệp, tình yêu, câu hỏi cho mục đích của cuộc sống và lẽ sống được tìm kiếm qua con đường tôn giáo và những trang văn thơ, cũng như những tiếp xúc thuở ban đầu với hội họa
+Phần 3: NHỮNG NĂM Ở PHÁP (1886 – 1990): Giai đoạn trưởng thành cùng những góc khuất, những giằng xé không được giải quyết, những câu hỏi không có câu trả lời và cũng không còn ai kiên trì để trả lời khi mốc trưởng thành đã đến và người ta hành động nhiều hơn thay vì ngồi hỏi những ngẩn ngơ ngày nào, cơm áo gạo tiền và địa vị xã hội cùng sự ổn định đã khiến tâm can người họa sĩ trở nên hoảng loạn và bất ổn nhất – nghịch lý là khi đó anh đã tạo ra những tác phẩm định hình rõ phong cách của anh cho tới khi rời bỏ cuộc đời
+</t>
+  </si>
+  <si>
+    <t>SBA0194</t>
+  </si>
+  <si>
+    <t>Ngăn 6</t>
+  </si>
+  <si>
+    <t>Thanh lọc não bộ 169k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y sinh </t>
+  </si>
+  <si>
+    <t>Bác sĩ David Perlmutter, Bác sĩ Austin Perlmutter, Kristin Loberg chấp bút</t>
+  </si>
+  <si>
+    <t>“Thanh lọc não bộ” xác định những yếu tố đang làm xói mòn đời sống của chúng ta, để từ đó đưa ra những phương cách cần thiết giúp mỗi người có thể suy nghĩ rõ ràng, quyết định sáng suốt, gắn kết bền chặt, và xây dựng được thói quen lành mạnh tốt cho não bộ. Với một chương trình mười ngày, bao gồm 40 công thức nấu ăn ngon miệng, “Thanh lọc não bộ” là chìa khóa để gieo dưỡng cuộc sống ý nghĩa và viên mãn.</t>
+  </si>
+  <si>
+    <t>Dinh dưỡng lành mạnh - Ngại gì bệnh tim 259k</t>
+  </si>
+  <si>
+    <t>Y học</t>
+  </si>
+  <si>
+    <t>Joel Fuhrman</t>
+  </si>
+  <si>
+    <t>Dinh dưỡng lành mạnh, ngại gì bệnh tim là cuốn sách nói về bệnh tim mạch – một căn bệnh cho đến nay vẫn được WHO đánh giá một trong những căn bệnh có tỷ lệ tử vong đứng hàng đầu thế giới.</t>
+  </si>
+  <si>
+    <t>Nguồn gốc dịch bệnh 249k</t>
+  </si>
+  <si>
+    <t>David Quammen</t>
+  </si>
+  <si>
+    <t>Trong mỗi chương của “Nguồn gốc dịch bệnh”, những căn bệnh đều dần trở nên rõ ràng, bắt đầu chỉ từ đôi ba tin đồn, vài cái chết bí ẩn dường như chẳng hề liên quan đến nhau. Quá trình điều tra dần dần bóc gỡ vấn đề, cho đến khi cuối cùng chân tướng của thủ phạm được phơi bày. Trong suốt quá trình đó, chúng ta sẽ được thấy muôn vàn cách mầm bệnh có thể di chuyển từ vật chủ này sang vật chủ khác – qua phân, dịch tiết, chấy nhầy và máu – và khám phá những hành vi nguy hiểm có thể dẫn đến phơi nhiễm: leo cây, uống nhựa chà là, ăn hay chỉ đơn thuần là chạm vào động vật đã chết… Quammen cũng tìm kiếm cả những đồng phạm không cố ý: những loài động vật mang mầm bệnh trước khi truyền cho người: lợn, chim, khỉ, khỉ đột và dơi.</t>
+  </si>
+  <si>
+    <t>SBA0083</t>
+  </si>
+  <si>
+    <t>Mật mã ung thư - Hiểu biết mới đột phá về bí ẩn ung thư 209k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs. Jason Fung
+</t>
+  </si>
+  <si>
+    <t>"Mật mã ung thư - Hiểu biết mới đột phá về bí ẩn ung thư" cuốn sách đề cập đến chủ đề về ung thư, một căn bệnh mà đến nay vẫn chưa có cách chữa trị hiệu quả.</t>
+  </si>
+  <si>
+    <t>SBA0087</t>
+  </si>
+  <si>
+    <t>Giải mã gen bẩn 199k</t>
+  </si>
+  <si>
+    <t>Ben Lynch</t>
+  </si>
+  <si>
+    <t>Tác giả là một bác sĩ theo trường phái tự nhiên, giúp các bệnh nhân cải thiện sức khỏe nhờ phương pháp ăn uống, tập luyện. Theo ông, trong cơ thể mỗi con người đều có nhiều gen bẩn, những gen gây rối loạn và có tác dụng tiêu cực tới sức khỏe con người, thậm chí gây ra nhiều bệnh nghiêm trọng. Tác giả tập trung vào 7 nhóm gen bẩn chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0091
+</t>
+  </si>
+  <si>
+    <t>Liệu pháp miễn dịch 199k</t>
+  </si>
+  <si>
+    <t>Charles Graeber</t>
+  </si>
+  <si>
+    <t>Cuốn sách kể lại chi tiết các khám phá khoa học đáng kinh ngạc về thứ mật mã giúp giải phóng hệ thống miễn dịch của con người để chống lại – và thậm chí có thể chữa khỏi – ung thư.</t>
+  </si>
+  <si>
+    <t>SBA0093</t>
+  </si>
+  <si>
+    <t>Vaxxers: Câu chuyện về cuộc đua phát triển vắc-xin chống Covid-19 của các nhà khoa học Oxford 199k</t>
+  </si>
+  <si>
+    <t>Giáo sư Sarah Gilbert và Tiến sỹ Catherine Green</t>
+  </si>
+  <si>
+    <t>Đây là câu chuyện về những nhà khoa học quả cảm chống lại một loại virus chết người và tàn khốc.</t>
+  </si>
+  <si>
+    <t>SBA0095</t>
+  </si>
+  <si>
+    <t>Dịch bệnh 189k</t>
+  </si>
+  <si>
+    <t>Michael T. Osterholm , Mark Olshaker</t>
+  </si>
+  <si>
+    <t>Đại dịch Covid-19 và Coronavirus đã được dự đoán trong cuốn sách từ 5 năm trước và nó đã xảy ra trong hiện tại. Vậy còn những dịch bệnh nào sẽ bùng phát trong tương lai?</t>
+  </si>
+  <si>
+    <t>SBA0096</t>
+  </si>
+  <si>
+    <t>Ăn gì bổ não 179k</t>
+  </si>
+  <si>
+    <t>Bác sĩ David Perlmutter, Kristin Loberg chấp bút</t>
+  </si>
+  <si>
+    <t>Với những lời khuyên dinh dưỡng chi tiết, “Ăn gì bổ não” sẽ giúp độc giả mở ra cánh cửa đến với tiềm năng sức khỏe não bộ chưa từng có.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0097
+</t>
+  </si>
+  <si>
+    <t>Hoang mang - Chỉ dẫn của bác sỹ để hiểu rõ đúng sai 179k</t>
+  </si>
+  <si>
+    <t>BS Nina Shapiro, Kristin Loberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mục đích của cuốn sách này là cung cấp cho độc giả sự thật về những lời khuyên sức khỏe thường gặp và đưa ra hướng dẫn cẩn thận, đáng tin cậy về việc trở thành người sử dụng dịch vụ sức khỏe và người bệnh thông minh. Nội dung cuốn sách đề cập đến nhiều vấn đề, bắt đầu với những thuyết âm mưu ở khắp nơi trong cộng đồng y tế và những khái niệm quan trọng cần hiểu như kiểm soát rủi ro, quan hệ nhân quả với tương quan, và thế nào là  nghiên cứu được thiết kế tốt và có thể tái áp dụng. Sau đó, tác giả sẽ chuyển sang trả lời những câu hỏi làm tâm trí mọi người ngày nay nhức nhối </t>
+  </si>
+  <si>
+    <t>SBA0100</t>
+  </si>
+  <si>
+    <t>Mật mã tiểu đường 179k</t>
+  </si>
+  <si>
+    <t>BS Jason Fung</t>
+  </si>
+  <si>
+    <t>“Tiểu đường” là căn bệnh rối loạn chuyển hóa cực kì phổ biến trong thế kỉ 21. Tiểu đường type 1, có mức insulin vô cùng thấp, đối lập hoàn toàn tiểu đường type 2, có mức insulin vô cùng cao. Tuy nhiên, đối với các bệnh nhân tiểu đường nói chung, chỉ định insulin hầu như luôn là lựa chọn hàng đầu của các bác sĩ. Bác sĩ Jason Fung lại giới thiệu với độc giả một góc nhìn hoàn toàn mới về vấn đề này.</t>
+  </si>
+  <si>
+    <t>SBA0103</t>
+  </si>
+  <si>
+    <t>Smoothie giải pháp từ thiên nhiên giúp giảm cân, thải độc, phòng bệnh, sống lâu 169k</t>
+  </si>
+  <si>
+    <t>Farnoosh Brock</t>
+  </si>
+  <si>
+    <t>Với mong muốn giúp mọi người phát triển một thói quen dùng sinh tố lành mạch bằng cách dùng những nguyên liệu sẵn có với khoản ngân sách vừa túi tiền, Farnoosh đã viết cuốn sách này để giúp đưa các món sinh tố ngon và lành trở nên dễ tiếp cận hơn.</t>
+  </si>
+  <si>
+    <t>SBA0106</t>
+  </si>
+  <si>
+    <t>Cai thuốc lá dễ dàng cùng Allen Carr 150k</t>
+  </si>
+  <si>
+    <t>Allen Carr</t>
+  </si>
+  <si>
+    <t>Khi còn là một kế toán viên thành công, cơn nghiện lên đến 100 điếu thuốc một ngày đã đẩy Allen Carr đến bờ vực tuyệt vọng cho đến khi, vào năm 1983, sau vô số nỗ lực cai thuốc lá thất bại, cuối cùng ông đã phát hiện ra thứ mà cả thế giới đang ngóng chờ: Phương Pháp Cai Thuốc Lá Dễ Dàng. Ông đã cùng cộng sự gây dựng mạng lưới phòng khám trên toàn cầu và đạt được tiếng tăm lừng lẫy từ thành công trong việc giúp người hút thuốc cai thuốc lá và phát hành các cuốn sách được xuất bản khắp thế giới, cùng những phiên bản khác như DVD, CD-ROM, trò chơi điện tử và chương trình phát sóng trên Internet.</t>
+  </si>
+  <si>
+    <t>SBA0107</t>
+  </si>
+  <si>
+    <t>Your health Your decision - Hợp tác cùng bác sĩ để trở thành người bệnh thông thái 139k</t>
+  </si>
+  <si>
+    <t>Robert Alan Mcnutt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Với độ dài không quá lớn, cách viết gần gũi với những câu chuyện thực ra chẳng hề xa lạ, cuốn sách sẽ giúp cho người đọc hiểu được phần nào các vấn đề liên quan đến việc ra quyết định sức khỏe, cũng như một số giải pháp để vượt qua chúng, giúp mọi người tự tin hơn với quá trình chăm sóc sức khỏe của bản thân mình. </t>
+  </si>
+  <si>
+    <t>SBA0109</t>
+  </si>
+  <si>
+    <t>Detox, Low-carb, thực phẩm hữu cơ...Tin đồn &amp; Sự thật 119k</t>
+  </si>
+  <si>
+    <t>Robert J Davis</t>
+  </si>
+  <si>
+    <t>Detox, low-carb, thực phẩm hữu cơ… tin đồn và sự thật không đơn thuần là một cuốn sách dinh dưỡng; nó là thứ vũ khí để bạn tiêu diệt thông tin nước đôi và quảng cáo bịa đặt, bảo vệ sự thật và tất nhiên là cả sức khỏe của bản thân.</t>
+  </si>
+  <si>
+    <t>SBA0111</t>
+  </si>
+  <si>
+    <t>Dinh dưỡng trong phòng chống ung thư 105k</t>
+  </si>
+  <si>
+    <t>Thêm vào đó, ung thư còn là một căn bệnh nguy hiểm. Nguyên nhân không chỉ do tác động của xâm lấn và di căn, mà còn do ung thư thường tiến triển trong âm thầm. Điều trị ung thư sẽ hiệu quả nếu căn bệnh này được phát hiện sớm; nhưng điều trớ trêu lại nằm ở chỗ, ung thư không bộc lộ triệu chứng trong giai đoạn ban đầu, hoặc nếu có thì cũng rất ít và dễ bị bỏ qua. Nếu cứ để vậy, căn bệnh sẽ chỉ được phát hiện khi khối u đã lớn, lan tràn ra nhiều cơ quan khác, khiến quá trình điều trị trở nên khổ sở, tốn kém, và nhiều khi còn không có tác dụng. Một trong những phương cách để khắc phục tình trạng này là tầm soát ung thư; biện pháp đó đã được thực hiện rất hiệu quả với ung thư vú, ung thư cổ tử cung, nhưng vẫn còn hạn chế với nhiều loại ung thư khác, vì bản chất căn bệnh hay vì hạn chế kỹ thuật.</t>
+  </si>
+  <si>
+    <t>SBA0116</t>
+  </si>
+  <si>
+    <t>Juice: Nước ép mỗi ngày cho cuộc sống tươi trẻ 169k</t>
+  </si>
+  <si>
+    <t>Stephanie Leach</t>
+  </si>
+  <si>
+    <t>Juice – Nước ép mỗi ngày cho cuộc sống tươi trẻ mang đến những hướng dẫn cũng như gợi ý để tối ưu hành trình juicing của bản thân với 360 công thức nước ép độc đáo được phân loại theo nhóm lợi ích sức khỏe, cho phép người đọc thoải mái tận hưởng nước ép mỗi ngày không sợ trùng lặp hay nhàm chán.</t>
+  </si>
+  <si>
+    <t>SBA0180</t>
+  </si>
+  <si>
+    <t>Hệ miễn dịch 149k</t>
+  </si>
+  <si>
+    <t>Daniel M. Davis</t>
+  </si>
+  <si>
+    <t>Hệ miễn dịch vô cùng phức tạp nhưng cũng không kém phần lý thú. Trong những năm gần đây, nghiên cứu miệt mài đã dẫn đến những tiến bộ lớn trong việc chúng ta nắm bắt thế giới nội tâm tuyệt đẹp này: Khi chúng ta bị ốm hoặc bị thương, một mạng lưới rộng lớn và phức tạp của các tế bào chuyên gia, protein điều hòa và các gen chuyên dụng lập tức hình thành cơ chế phòng vệ trong cơ thể, nỗ lực triệt hạ những vi khuẩn xâm nhập hoặc tấn công những khối u đang phát triển. Nó mạnh mẽ hơn nhiều so với bất kỳ loại thuốc nào từng được phát minh.</t>
+  </si>
+  <si>
+    <t>SBA0183</t>
+  </si>
+  <si>
+    <t>SBA0035</t>
+  </si>
+  <si>
+    <t>SBA0081</t>
+  </si>
+  <si>
+    <t>Ngăn 7</t>
+  </si>
+  <si>
+    <t>Bàn về chính quyền 199k</t>
+  </si>
+  <si>
+    <t>Marcus Tullius Cicero</t>
+  </si>
+  <si>
+    <t>Thuật cầm quyền có vai trò thiết yếu đối với cuộc sống của chúng ta, và là thứ nghệ thuật cực kỳ phức tạp. Chúng ta sẽ nhận ra độ phức tạp của nó khi xem xét những sai lầm kinh hoàng của những nhà cai trị xuyên suốt các thời đại, và vẫn còn tiếp diễn đến ngày nay. Vì vậy họ cần phải biết rõ hơn về công việc mà họ đang nỗ lực thực hiện, cũng như về thành tựu và sai sót nổi bật trong sự nghiệp của những chính quyền khác trong quá khứ.</t>
+  </si>
+  <si>
+    <t>SBA0026</t>
+  </si>
+  <si>
+    <t>Một chiến dịch ở Bắc Kỳ 499k</t>
+  </si>
+  <si>
+    <t>Hocquard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ký sự hành trình Une campagne au Tonkin (Một chiến dịch ở Bắc kỳ) xuất hiện lần đầu, bằng tiếng Pháp, trên tạp chí Le Tour du Monde (Vòng quanh thế giới) với nhan đề “Trente Mois au Tonkin” (Ba mươi tháng ở Bắc kỳ), được chia làm năm phần đăng từ năm 1889 đến năm 1891. Năm 1892, tác giả sửa nhan đề thành Une campagne au Tonkin (Một chiến dịch ở Bắc kỳ) để nhà xuất bản Hachette (Paris) in toàn bộ tác phẩm và 229 tranh khắc, bản đồ tuyệt đẹp về Việt Nam.  </t>
+  </si>
+  <si>
+    <t>SBA0033</t>
+  </si>
+  <si>
+    <t>Hội kín xứ An Nam - bìa mềm -189k</t>
+  </si>
+  <si>
+    <t>Georges Coulet</t>
+  </si>
+  <si>
+    <t>Cuốn sách nghiên cứu về hội kín ở xứ An Nam, với nhiều câu chuyện, sự kiện, tình tiết bí mật thường không được nhắc trong sách Sử.</t>
+  </si>
+  <si>
+    <t>SBA0043</t>
+  </si>
+  <si>
+    <t>Lý Lịch sự vụ 179k</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Xuyên</t>
+  </si>
+  <si>
+    <t>Năm 1822, do chủ trương của vua Minh Mạng, cho các quan từng giữ trọng trách trong triều viết lý lịch sự vụ nạp tại Sử quán để làm tài liệu viết sử, Nguyễn Đức Xuyên đã viết bản hồi ký này, gọi tên là Lý lịch sự vụ… Cách viết của tài liệu này là lối viết biên niên theo trình tự năm tháng ngày. Nội dung bao gồm đủ mọi việc liên quan đến công vụ của Nguyễn Đức Xuyên trong suốt 43 năm.</t>
+  </si>
+  <si>
+    <t>SBA0047</t>
+  </si>
+  <si>
+    <t>Chuyện những người An Nam ở Paris hay sự thật về Đông Dương 125k</t>
+  </si>
+  <si>
+    <t>Phan Văn Trường</t>
+  </si>
+  <si>
+    <t>Theo chân những tường thuật của Luật sư-Tiến sĩ Luật Phan Văn Trường, người chí sĩ đã sát cánh cùng nhiều nhân vật cách mạng người Việt thời bấy giờ trong công cuộc đấu tranh ngay tại mẫu quốc – tất cả được thuật lại tỉ mỉ trong “Chuyện những người An Nam ở Paris hay sự thật về Đông Dương” – người Việt chúng ta ở thời hiện đại sẽ có thể hiểu rõ hơn hành trạng của một số nhân vật lịch sử hồi đầu thế kỷ XX, cũng như phần nào thấu suốt được lý do vì sao công cuộc đấu tranh giành độc lập cho dân tộc phải chuyển sang một giai đoạn mới.</t>
+  </si>
+  <si>
+    <t>SBA0052</t>
+  </si>
+  <si>
+    <t>Bài học Phần Lan 3.0 199k</t>
+  </si>
+  <si>
+    <t>Giáo dục</t>
+  </si>
+  <si>
+    <t>Pasi Sahlberg</t>
+  </si>
+  <si>
+    <t>Ở Bài học Phần Lan 3.0, Pasi Sahlberg tiếp nối và cập nhật câu chuyện về cách Phần Lan duy trì thành tích giáo dục mẫu mực của mình, bao gồm cả cách nước này phản ứng với những thay đổi hỗn loạn trong nước và trên toàn thế giới như đại dịch Covid-19.</t>
+  </si>
+  <si>
+    <t>SBA0123</t>
+  </si>
+  <si>
+    <t>Lịch sử (BC) 369k</t>
+  </si>
+  <si>
+    <t>Herodotus</t>
+  </si>
+  <si>
+    <t>Historiai được coi là công trình nền tảng của lịch sử trong văn học phương Tây. Được biên soạn vào năm 440 TCN bằng phương ngữ Ionia thuộc Cổ Hi Lạp ngữ, Historiai đóng vai trò cứ liệu của truyền thống cổ đại, chính trị, địa lí, và xung đột giữa các nền văn hóa hiện diện lúc bấy giờ tại Tây Á, Bắc Phi và Hy Lạp. Dù không hoàn toàn khách quan, nó vẫn là một trong những nguồn tư liệu quan trọng nhất của Tây phương về những sự kiện đương thời.</t>
+  </si>
+  <si>
+    <t>SBA0127</t>
+  </si>
+  <si>
+    <t>Cộng hòa 299k</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>“Cộng hòa” là tác phẩm có ảnh hưởng lớn đến sự phát triển của tư duy triết học và học thuyết chính trị suốt hơn hai ngàn năm qua. Có người đã cho rằng, nếu đem tất cả sách vở trên thế giới ra đốt hết thì cũng không hề hấn gì, ngoại trừ cuốn “Cộng hòa” của Plato.</t>
+  </si>
+  <si>
+    <t>SBA0128</t>
+  </si>
+  <si>
+    <t>Chính trị đảng phái tại Hoa Kỳ 269k</t>
+  </si>
+  <si>
+    <t>Marjorie Randon Hershey</t>
+  </si>
+  <si>
+    <t>“Chính Trị Đảng Phái Tại Hoa Kỳ” (tên tiếng anh: “Parties Politics in America”) là cuốn giáo trình kinh điển về các đảng chính trị, được sử dụng rộng rãi trong giảng dạy tại các trường đại học của Mỹ.</t>
+  </si>
+  <si>
+    <t>SBA0132</t>
+  </si>
+  <si>
+    <t>Cội nguồn 219k</t>
+  </si>
+  <si>
+    <t>David Christian</t>
+  </si>
+  <si>
+    <t>Thay vào đó, David Christian đã khéo léo kết hợp kiến thức của nhiều ngành khoa học và gói gọn chúng chỉ trong 400 trang sách với lối kể tài tình, mang đến một câu chuyện lịch sử vĩ đại về cội nguồn của vạn vật dành cho tất cả mọi người trên thế giới trong cuốn “Origin Story: A Big History of Everything” (Cội Nguồn: Lịch Sử Vĩ Đại Của Vạn Vật).</t>
+  </si>
+  <si>
+    <t>SBA0134</t>
+  </si>
+  <si>
+    <t>Lawrence xứ Ả - Rập 449k</t>
+  </si>
+  <si>
+    <t>Scott Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawrence xứ Ả-Rập" là tác phẩm của nhà văn và phóng viên chiến trường người Mỹ Scott Anderson, sẽ góp phần làm sáng tỏ câu chuyện về sự hình thành của Trung Đông hiện đại, và từ cái nhìn sâu vào quá trình đó giúp ta hiểu được những vấn đề hiện tại họ đang đối mặt. </t>
+  </si>
+  <si>
+    <t>SBA0136</t>
+  </si>
+  <si>
+    <t>Lịch sử tư tưởng Trung Quốc 399k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Cheng </t>
+  </si>
+  <si>
+    <t>Nội dung cuốn Lịch sử tư tưởng Trung Quốc được chia thành 6 phần, 22 chương; trình bày và thảo luận về lịch sử tư tưởng Trung Quốc từ khởi thủy đến đầu thế kỷ XX. Ngay sau khi xuất bản, cuốn sách đã được Viện Hàn lâm Văn khắc và Văn chương Pháp trao giải thưởng Stanilas Julien (1997) và Viện Hàn lâm Khoa học Đạo đức và Chính trị Pháp trao giải thưởng Dagnan-Bouveret (1998). Cuốn sách được đón nhận một cách nồng nhiệt không chỉ trong cộng đồng Pháp ngữ (tái bản vào các năm 2002, 2014) mà còn được dịch ra nhiều thứ tiếng (11 thứ tiếng).</t>
+  </si>
+  <si>
+    <t>SBA0137</t>
+  </si>
+  <si>
+    <t>Bản Sắc 135k</t>
+  </si>
+  <si>
+    <t>Francis Fukuyama</t>
+  </si>
+  <si>
+    <t>Bản sắc là cuốn sách cần thiết và cấp thiết, mang đến một lời cảnh báo sắc sảo: nếu không lý giải được bản sắc con người, chúng ta sẽ tự đẩy mình đến tình trạng xung đột triền miên.</t>
+  </si>
+  <si>
+    <t>SBA0141</t>
+  </si>
+  <si>
+    <t>Tiểu luận về dân Bắc Kỳ 209k</t>
+  </si>
+  <si>
+    <t>Nội dung của cuốn sách gồm sáu chủ đề lớn liên quan tới tổ chức xã hội, văn hóa, phong tục, tập quán và nếp sống thường nhật của người dân Bắc kỳ cuối thế kỷ thứ XIX: 1) Xã hội: tổ chức làng xã An Nam, việc xét xử, việc quân…; 2) Gia đình: sinh con, cưới hỏi, tang ma…; 3) Trò giải trí và nghề nghiệp: ca kỹ và đào kép, các nghề, chơi bài lá, đưa đò, sơn và dầu sơn, phu trạm…; 4) Thực phẩm: tục ăn đất, cỗ (cúng, làng, đám ma, mừng thọ), nước chấm, tín ngưỡng dân gian liên quan đến bữa ăn…; 5) Y học: thầy lang, hiệu thuốc; 6) Mê tín: phù thủy và bói toán, hậu vận, cốt tướng, diện tướng... Những chủ đề được trình bày tương đối cụ thể theo quan sát, ghi chép và diễn giải của tác giả. Qua đây, độc giả phần nào hình dung được những nét văn hóa, phong tục tập quán, lối sống của người dân Bắc kỳ cuối thế kỷ XIX.</t>
+  </si>
+  <si>
+    <t>SBA0144</t>
+  </si>
+  <si>
+    <t>Trường pháp ở Việt Nam 1945 -1975 249k</t>
+  </si>
+  <si>
+    <t>Nguyễn Thụy Phương</t>
+  </si>
+  <si>
+    <t>Cuốn sách giới thiệu cô đọng những đặc điểm căn bản của giáo dục Đông Dương thuộc địa, giúp độc giả khám phá tiến trình ít nhiều bị cưỡng ép để biến “sứ mạng khai hóa” thành một thứ “Phái bộ văn hóa” thích ứng linh động hơn với điều kiện chính trị và chiến cuộc từ 1945 đến 1954. Đồng thời phân tích sự phát triển của hệ thống trường Pháp tại miền Nam từ 1954 đến 1975 trong bộ “áo choàng ngoại giao” mới dưới thời chính quyền Việt Nam Cộng hòa có sự hậu thuẫn của Mỹ.</t>
+  </si>
+  <si>
+    <t>SBA0149</t>
+  </si>
+  <si>
+    <t>Đế quốc An Nam và người dân An Nam 189k</t>
+  </si>
+  <si>
+    <t>Jules Silvestre</t>
+  </si>
+  <si>
+    <t>Tác phẩm L'empire d'Annam et le peuple annamite. Aperçu sur la géographie, les productions, l'industrie, les mœurs et les coutumes de l'Annam (Đế quốc An Nam và người dân An Nam: Tổng quan về địa lý, sản vật, kỹ nghệ, phong tục và tập quán An Nam) được đăng lần đầu (nhiều kỳ) trên tờ Công báo Courrier de Saigon (Sài Gòn thư tín) vào năm 1875 và 1876, xuất bản dưới sự bảo trợ của chính quyền thuộc địa.</t>
+  </si>
+  <si>
+    <t>SBA0150</t>
+  </si>
+  <si>
+    <t>Vùng đất Nam Bộ dưới triều Minh Mạng (1820-1841) 179k</t>
+  </si>
+  <si>
+    <t>Choi Byung Wook</t>
+  </si>
+  <si>
+    <t>Mục đích của cuốn sách này nhằm làm sáng tỏ một loạt những sự kiện chính trị quan trọng đã diễn ra ở Nam bộ trong nửa đầu thế kỷ XIX. Từ vùng đất này, các đội quân đã hành quân ra Bắc để thống nhất Việt Nam và lập nên vương triều Nguyễn (1802-1945). Tuy nhiên, năm 1833, một cuộc nổi dậy của người dân Nam bộ (thường được gọi là cuộc khởi nghĩa Lê Văn Khôi) đã nổ ra, tuyên bố nền cai trị độc lập cho Nam bộ nhưng chỉ kéo dài được hai năm thì bị dập tắt. Các cuộc xung đột sắc tộc tiếp theo sau vụ nổi loạn càng làm vùng đất Nam bộ bị tàn phá nhiều hơn. Sau đó, vào năm 1859, người Pháp đổ bộ lên vùng đất này. Phong trào chống Pháp của người Nam bộ bắt đầu và được kích động bởi lòng trung thành mạnh mẽ đối với triều đình Huế.</t>
+  </si>
+  <si>
+    <t>SBA0151</t>
+  </si>
+  <si>
+    <t>Ma thuật, bùa chú và tục việt vu kê bốc 159k</t>
+  </si>
+  <si>
+    <t>Kiều Thu Hoạch</t>
+  </si>
+  <si>
+    <t>Bùa chú từ thuở sơ khai của con người đã xuất hiện với nhiều ý nghĩa được gán vào, thể hiện mong ước của con người về sức khỏe, hạnh phúc và cuộc sống trần thế. Tùy theo hình thức và hình ảnh mà chúng thể hiện, người ta cho là bùa có năng lực truyền cho con người sức khỏe, trí khôn, sự tươi vui trong cuộc sống và những lạc thú thân xác
+Chỉ qua xem xét về mặt ngôn ngữ theo lối duy danh định nghĩa, rõ ràng đã cho thấy bùa không chỉ có ở những nước sử dụng chữ Hán, mà nó còn được sử dụng bằng cả những loại hình văn tự hoặc ký hiệu khác từ thời Ai Cập cổ đại để canh giữ xác ướp. Điều này cũng đã hé lộ khía cạnh tâm linh của bùa, một khía cạnh vô cùng quan trọng của bùa chú. Như vậy, có thể coi tín ngưỡng, tôn giáo như là nền tảng văn hóa tâm linh về bùa chú của người Việt. Chính vì vậy, tác giả Kiều Thu Hoạch chủ trương tìm hiểu cội nguồn bùa chú của người Việt trong cộng đồng Bách Việt, với tục “Việt vu kê bốc”, thông qua công trình Ma thuật, bùa chú và tục Việt vu kê bốc trong tín ngưỡng dân gian của người Việt.</t>
+  </si>
+  <si>
+    <t>SBA0153</t>
+  </si>
+  <si>
+    <t>Tâm lý dân tộc An Nam (bìa mềm) 109k</t>
+  </si>
+  <si>
+    <t>Paul Giran</t>
+  </si>
+  <si>
+    <t>Để hiểu được những sự kiện gây tranh luận trong xã hội Việt Nam hiện tại, bạn có thể tìm thấy câu trả lời ít nhiều trong "Tâm lý dân tộc An Nam", dù cho tác phẩm đã được viết ra từ thế kỷ trước.</t>
+  </si>
+  <si>
+    <t>SBA0155</t>
+  </si>
+  <si>
+    <t>Lược sử phát triển dân quyền nhật bản 249k</t>
+  </si>
+  <si>
+    <t>Uehara Etsujirō</t>
+  </si>
+  <si>
+    <t>Sự phát triển của chính thể lập hiến Nhật Bản, tuy vẫn còn chậm nhưng vẫn phát triển qua từng năm là điều ai cũng nhận thấy. Chính thể lập hiến của Nhật Bản còn chưa phát triển kiện toàn, có thể là vì quốc dân chưa hiểu hết nguồn gốc cũng như diên cách xây dựng chính thể lập hiến ở Nhật Bản; có thể vì quốc dân không có sự hiểu biết một cách triệt để về chính thể lập hiến.
+Uehara Etsujirō nhìn thấy điểm đó nên mới soạn ra sách này, những mong độc giả thấy được khái lược sự phát triển của nền hiến chính Nhật Bản.</t>
+  </si>
+  <si>
+    <t>SBA0159</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Truyện dân gian Do Thái 189k</t>
+  </si>
+  <si>
+    <t>Nguyễn Ước</t>
+  </si>
+  <si>
+    <t>Văn học dân gian Do Thái có một kho tàng phong phú những truyện mà người ta có thể kể cho nhau nghe dưới mái ấm gia đình, trong cuộc gặp mặt thân hữu và giữa chốn hội đường.
+Những truyện dân gian này có màu sắc rất độc đáo và chiều kích thâm sâu. Chúng xoay quanh một cái trục, đó là tuyệt đối vâng phục Thượng đế, tuân giữ nghiêm ngặt lề luật tôn giáo và duy trì niềm tin lạc quan vào sự quan phòng của Đấng tạo hóa.</t>
+  </si>
+  <si>
+    <t>SBA0166</t>
+  </si>
+  <si>
+    <t>Tủ sách đời người: Truyện cổ Nhật Bản 209k</t>
+  </si>
+  <si>
+    <t>Toshio Ozawa, Suekichi Akaba</t>
+  </si>
+  <si>
+    <t>Các câu chuyện trong Truyện cổ Nhật Bản mang đến những nội dung thú vị, các chủ đề xoay quanh cuộc sống. Nội dung truyện được nhân hóa và mang đến nhiều thể loại đặc sắc, giúp cho mọi người có được những nguồn động lực và truyền cảm hứng sâu sắc. Ẩn chứa trong đó là lời chỉ bảo, khuyên răn mọi người hướng đến những điều tốt đẹp, chân thành, lương thiện.</t>
+  </si>
+  <si>
+    <t>SBA0167</t>
+  </si>
+  <si>
+    <t>Lược sử vạn vật 299k</t>
+  </si>
+  <si>
+    <t>Bill Bryson</t>
+  </si>
+  <si>
+    <t>Lược sử vạn vật là cuốn sách phổ biến khoa học trình bày một cách ngắn gọn lịch sử nghiên cứu khoa học tự nhiên, những thành tựu khoa học trong các lĩnh vực khoa học tự nhiên chính: vật lý, hóa học, sinh học, địa chất, thiên văn… với nhiều tên tuổi, giai thoại và sự thật.
+Với cuốn sách này, người đọc sẽ biết được những giới hạn trong tri thức của con người về vũ trụ và cả về chính trái đất. Đây là cuốn sách khoa học phổ thông bán chạy nhất nước Anh năm 2005 với hơn 300.000 bản in. Nhà phê bình người Anh, Craig Brown thậm chí đã nhận xét rằng tác phẩm này xứng đáng bán được 500.000.000.000 cuốn (theo cách nói của chính Bryson, "bằng với số proton có trong một dấu chấm câu").</t>
+  </si>
+  <si>
+    <t>SBA0172</t>
+  </si>
+  <si>
+    <t>Ngăn 8</t>
+  </si>
+  <si>
+    <t>Bắt đầu từ trứng 199k</t>
+  </si>
+  <si>
+    <t>Mẹ và bé</t>
+  </si>
+  <si>
+    <t>Rebecca Fett</t>
+  </si>
+  <si>
+    <t>Cuốn sách này sẽ chỉ ra những việc đơn giản bạn có thể làm để có cơ hội mang thai thuận lợi nhất và sinh được em bé khỏe mạnh. Và tất cả bắt đầu từ trứng.</t>
+  </si>
+  <si>
+    <t>SBA0061</t>
+  </si>
+  <si>
+    <t>IQ vượt trội: Giúp con phát triển não bộ và nâng cao trí thông minh 149k</t>
+  </si>
+  <si>
+    <t>BS David Perlmutter, Carol Colman</t>
+  </si>
+  <si>
+    <t>IQ vượt trội là một cuốn sách toàn diện về cách nuôi dạy con thông minh từ những ngày ấu thơ cho đến lúc đi học.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0062
+</t>
+  </si>
+  <si>
+    <t>Cẩm nang Sơ cấp cứu thường thức 299k</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Đây là cuốn sách thường thức, dễ tiếp cận, do đề cập đến những sự cố hiện hữu ở mọi nơi trong đời sống thường nhật (như hỏa hoạn, tai nạn giao thông…), và các tình trạng có thể gặp phải ở mọi người ở mọi độ tuổi (chảy máu, điện giật, đuối nước, bất tỉnh do nhiều nguyên nhân…).</t>
+  </si>
+  <si>
+    <t>SBA0077</t>
+  </si>
+  <si>
+    <t>Vắc-Xin những điều cần biết về tiêm chủng 219k</t>
+  </si>
+  <si>
+    <t>Robert W. Sears</t>
+  </si>
+  <si>
+    <t>Đây là cuốn sách hữu ích cho những người muốn tìm hiểu về vắc-xin, đặc biệt là những phụ huynh đang và chuẩn bị có con nhỏ.</t>
+  </si>
+  <si>
+    <t>SBA0085</t>
+  </si>
+  <si>
+    <t>Cẩm nang sơ cấp cứu trẻ em 199k</t>
+  </si>
+  <si>
+    <t>Cuốn sách này không chỉ dành cho các bậc phụ huynh mà còn cho cả ông bà, thầy cô giáo, bảo mẫu…, những người thường xuyên hoặc thi thoảng chăm sóc trẻ. Phần nội dung được trình bày rõ ràng, mạch lạc, thông tin hiển thị trên khung tranh rộng với câu từ đơn giản và dễ hiểu.</t>
+  </si>
+  <si>
+    <t>SBA0089</t>
+  </si>
+  <si>
+    <t>Vắc-Xin mRNA cuộc chinh phục đại dịch covid-19 từ cái nhìn trong cuộc 199k</t>
+  </si>
+  <si>
+    <t>Joe Miller, TS Özlem Türeci và TS Uğur Şahin</t>
+  </si>
+  <si>
+    <t>Vắc-xin mRNA: Cuộc chinh phục đại dịch Covid-19 từ cái nhìn trong cuộc – cuốn sách nói về cách mà khoa học đã vượt qua vô vàn trở ngại để cứu sống sinh mạng con người.</t>
+  </si>
+  <si>
+    <t>SBA0094</t>
+  </si>
+  <si>
+    <t>Hiểu để kiểm soát bệnh tiểu đường và biến chứng 179k</t>
+  </si>
+  <si>
+    <t>Nuzhat Chalisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiểu để kiểm soát bệnh tiểu đường và biến chứng của bác sĩ Nuzhat Chalisa là một bản hướng dẫn hoàn chỉnh cho bất kỳ ai muốn tìm hiểu cách phòng ngừa bệnh tiểu đường, quản lý bệnh và các biến chứng. </t>
+  </si>
+  <si>
+    <t>SBA0099</t>
+  </si>
+  <si>
+    <t>Kể gì với bác sĩ 179k</t>
+  </si>
+  <si>
+    <t>BS Leana Wen BS Joshua Kosowsky</t>
+  </si>
+  <si>
+    <t>Bước chân vào bệnh viện là vào nơi mà sự sống và cái chết cách nhau chẳng bao xa, nơi mà nỗi đau và niềm hy vọng luôn đan xen, kiến thức y khoa là thứ khá xa lạ với đa số người bệnh… tất cả đã tạo nên một mối quan hệ phụ thuộc của người bệnh với các thầy thuốc. Mối quan hệ này thay đổi tùy theo từng nền văn hóa, tùy theo từng hoàn cảnh điều kiện cụ thể. Về nguyên tắc, người thầy thuốc khi khám bệnh, điều trị cho bệnh nhân không đại diện cho cá nhân họ mà đại diện cho một ngành khoa học đặc biệt, ngành khoa học nhân văn, bởi liên quan tới tính mạng và sức khỏe của con người.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0101
+</t>
+  </si>
+  <si>
+    <t>Toát yếu đông dược diễn ca 179k</t>
+  </si>
+  <si>
+    <t>Lương y Nguyễn Hữu Hiệp, TS Dược học Nguyễn Thị Vinh Huê</t>
+  </si>
+  <si>
+    <t>Trong những năm gần đây, nền y học Việt Nam đã chứng kiến sự phát triển rõ rệt cùng những thành tựu đáng khích lệ của ngành Đông y. Cùng lúc, Đông dược nhận được vô số quan tâm của cộng đồng bởi nguồn gốc thiên nhiên sẵn có và phương pháp điều chế cổ truyền được sàng lọc qua hàng ngàn năm. Toát yếu Đông dược diễn ca, cuốn sách dựa trên hiểu biết sâu rộng cũng như kinh nghiệm phong phú của Lương y Nguyễn Hữu Hiệp và Tiến sĩ dược học Nguyễn Thị Vinh Huê, đã ra đời để đáp ứng nhu cầu bức thiết hiện nay.</t>
+  </si>
+  <si>
+    <t>SBA0105</t>
+  </si>
+  <si>
+    <t>Đừng Ốm 109k</t>
+  </si>
+  <si>
+    <t>Ban biên tập Tạp chí Prevention</t>
+  </si>
+  <si>
+    <t>Đặc biệt, cuốn sách bật mí 50 bí quyết đơn giản mà hiệu quả, cùng vô vàn lời khuyên thiết thực từ các bác sĩ và chuyên gia, giúp bạn SỐNG KHỎE mỗi ngày.</t>
+  </si>
+  <si>
+    <t>SBA0113</t>
+  </si>
+  <si>
+    <t>Phòng và hỗ trợ điều trị các bệnh rối loạn chuyển hóa 109k</t>
+  </si>
+  <si>
+    <t>VS GS TSKH Đái Duy Ban</t>
+  </si>
+  <si>
+    <t>Đúng như tên của mình Phòng và hỗ trợ điều trị các bệnh rối loạn chuyển hóa là một bản tổng hợp kiến thức về các căn bệnh phổ biến như béo phì, đái tháo đường, loãng xương, gout, tim mạch, huyết áp…</t>
+  </si>
+  <si>
+    <t>SBA0115</t>
+  </si>
+  <si>
+    <t>Bí đầu ra 99k</t>
+  </si>
+  <si>
+    <t>BS Atsushi Nakajima</t>
+  </si>
+  <si>
+    <t>Người ta cho rằng cuộc đời hạnh phúc chỉ gói gọn trong câu: “Ăn được ngủ được là tiên.” Thế nhưng ít ai biết rằng, cuộc đời viên mãn vẫn còn phải phụ thuộc vào hệ bài tiết, cụ thể hơn là việc đại tiện. Tuy nhiên trong những năm gần đây, tính nguy hiểm của bệnh táo bón ngày càng rõ ràng. BÍ ĐẦU RA – 90% tuổi thọ phụ thuộc vào việc đại tiện là cuốn sách đề cập trực tiếp đến vấn đề nhức nhối này.</t>
+  </si>
+  <si>
+    <t>SBA0118</t>
+  </si>
+  <si>
+    <t>Đột quỵ Não 99k</t>
+  </si>
+  <si>
+    <t>PGS TS Mai Duy Tôn</t>
+  </si>
+  <si>
+    <t>Cuốn sách gồm 5 chương, tập hợp những câu hỏi thường gặp nhất về đột quỵ não: Thế nào là đột quỵ não? Dấu hiệu nhận biết? Làm gì khi có người bị đột quỵ não? Phục hồi sau đột quỵ não ra sao? Người từng bị đột quỵ có được đi máy bay không? Có được lái xe không? Đột quỵ não có phải là bệnh di truyền?...</t>
+  </si>
+  <si>
+    <t>SBA0119</t>
+  </si>
+  <si>
+    <t>Lịch sử ung thư - Hoàng đế của bách bệnh (bìa mềm) 289k</t>
+  </si>
+  <si>
+    <t>Cuốn sách đoạt giải Pulitzer năm 2011 cho hạng mục sách phi hư cấu.
+Tạp chí Time vinh danh là một trong 100 tác phẩm viết bằng tiếng Anh có ảnh hưởng nhất kể từ năm 1923, và là một trong 100 tác phẩm đáng chú ý năm 2010 theo New York Times.Bộ
+Bộ phim cùng tên do kênh PBS thực hiện cũng được đề cử giải Emmy.
+Tác giả Siddhartha Mukherjee là Bác sĩ người Mỹ gốc Ấn Độ, từng học ngành sinh học tại Đại học Stanford, lấy bằng tiến sĩ của Đại học Oxford và bằng Y khoa của Đại học Harvard.</t>
+  </si>
+  <si>
+    <t>SBA0124</t>
+  </si>
+  <si>
+    <t>DNA Hành trình khám phá cấu trúc chuỗi xoắn kép 179k</t>
+  </si>
+  <si>
+    <t>James Watson</t>
+  </si>
+  <si>
+    <t>“Được xuất bản vào năm 2012 để đánh dấu 50 năm kể từ khi giải Nobel được trao cho Watson và Crick về công trình khám phá cấu trúc DNA, một ấn bản với chú thích và minh họa của cuốn sách kinh điển này mang đến những hiểu biết mới về mối quan hệ cá nhân giữa James Watson, Frances Crick, Maurice Wilkins, Rosalind Franklin. Những câu chuyện liên quan được người trong cuộc thuật lại đầy chi tiết, giúp khắc họa chân dung các nhà khoa học cũng như đời sống, suy tư hay cảm xúc của họ trong quá trình làm việc nghiên cứu.</t>
+  </si>
+  <si>
+    <t>SBA0125</t>
+  </si>
+  <si>
+    <t>Chất xơ diệu kỳ 189k</t>
+  </si>
+  <si>
+    <t>Will Bulsiewicz</t>
+  </si>
+  <si>
+    <t>“Chất xơ diệu kỳ” mang đến cho bạn bản kế hoạch cải thiện hệ tiêu hóa cho sức khỏe dài lâu trong vòng 28 ngày với thực đơn và hơn 65 công thức nấu ăn, cùng những lời khuyên quan trọng về nhạy cảm với thức ăn.</t>
+  </si>
+  <si>
+    <t>SBA0163</t>
+  </si>
+  <si>
+    <t>Cú sốc - Hành trình giành lại sự sống của một bác sĩ 159k</t>
+  </si>
+  <si>
+    <t>Rana Awdish</t>
+  </si>
+  <si>
+    <t>Cuốn sách là câu chuyện giành lại sự sống của bác sĩ Rana Awdish, khi cô đột ngột đổ bệnh, phải đi cấp cứu, suýt nữa đã sang thế giới bên kia.</t>
+  </si>
+  <si>
+    <t>SBA0170</t>
+  </si>
+  <si>
+    <t>Đọc hiểu kết quả xét nghiệm máu 259k</t>
+  </si>
+  <si>
+    <t>James B. LaValle</t>
+  </si>
+  <si>
+    <t>Tác giả James LaValle làm sáng tỏ bí ẩn xung quanh kết quả xét nghiệm máu bằng ngôn ngữ đơn giản, dễ hiểu trong cuốn sách này.</t>
+  </si>
+  <si>
+    <t>SBA0176</t>
+  </si>
+  <si>
+    <t>Trí óc minh mẫn: Để não bộ sắc bén ở mọi lứa tuổi 249k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bác sĩ Sanjay Gupta </t>
+  </si>
+  <si>
+    <t>Trí óc minh mẫn – Để não bộ sắc bén ở mọi lứa tuổi – cuốn sách sẽ cho bạn thấy tiềm năng xây dựng và cách duy trì một bộ não tốt hơn ở bất kỳ độ tuổi nào.</t>
+  </si>
+  <si>
+    <t>SBA0177</t>
+  </si>
+  <si>
+    <t>Lắng nghe cơ thể 209k</t>
+  </si>
+  <si>
+    <t>James Hamblin</t>
+  </si>
+  <si>
+    <t>Đây là cuốn sách dễ hiểu, vừa mang đầy kiến thức, vừa giải trí, và xen vào đó là đôi chút khác thường khiến bạn khoan khoái.</t>
+  </si>
+  <si>
+    <t>SBA0178</t>
+  </si>
+  <si>
+    <t>Những vùng đất trường thọ 159k</t>
+  </si>
+  <si>
+    <t>Dan Buettner</t>
+  </si>
+  <si>
+    <t>Cuốn sách đem đến cho bạn những “phương pháp hay nhất”, dễ thực hiện và danh sách các lựa chọn lối sống lành mạnh từ Những vùng đất trường thọ sẽ giúp độc giả sống lâu hơn, khỏe mạnh hơn và trọn vẹn hơn.</t>
+  </si>
+  <si>
+    <t>SBA0181</t>
+  </si>
+  <si>
+    <t>Đồng hành cùng bệnh nhân ung thư: Cẩm nang cho bệnh nhân và người thân 149K</t>
+  </si>
+  <si>
+    <t>TS BS Phạm Nguyên Quý, ThS Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Đồng Hành Cùng Bệnh Nhân Ung Thư - Cẩm Nang Cho Bệnh Nhân Và Người Thân - Cuốn sách như một người bác sĩ tận tâm luôn xuất hiện mọi lúc để giải đáp tất cả những khúc mắc về căn bệnh ung thư.</t>
+  </si>
+  <si>
+    <t>SBA0182</t>
+  </si>
+  <si>
+    <t>Chế độ ăn trường thọ 139k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiến sĩ Valter Longo </t>
+  </si>
+  <si>
+    <t>Với cuốn sách “Chế độ ăn trường thọ”, Tiến sĩ Valter Longo đã giới thiệu một phương thức mới để kiểm soát sự lão hóa của con người.</t>
+  </si>
+  <si>
+    <t>SBA0184</t>
+  </si>
+  <si>
+    <t>Đồng hành cùng bệnh nhân ung thư: Dinh dưỡng cho bệnh nhân ung thư 99k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhiều tác giả </t>
+  </si>
+  <si>
+    <t>“Đồng hành cùng bệnh nhân ung thư: Dinh dưỡng cho bệnh nhân ung thư” cuốn sách sẽ giúp cho người bệnh có thêm kiến thức về dinh dưỡng trong quá trình điều trị ung thư và sau điều trị ung thư, cũng như là nơi chia sẻ những bí quyết dinh dưỡng của chính bản thân mình!</t>
+  </si>
+  <si>
+    <t>SBA0185</t>
+  </si>
+  <si>
+    <t>Khi hơi thở hóa thinh không 109k</t>
+  </si>
+  <si>
+    <t>Paul Kalanithi</t>
+  </si>
+  <si>
+    <t>“Khi hơi thở hóa thinh không” là cuốn hồi kí được viết bởi Paul Kalanithi – một bác sĩ phẫu thuật não và cũng là một bệnh nhân ung thư phổi giai đoạn cuối. Paul viết cuốn sách này trong những tháng cuối cùng của cuộc đời anh – khi mà anh đang đối mặt trực tiếp với cái chết.</t>
+  </si>
+  <si>
+    <t>SBA0200</t>
+  </si>
+  <si>
+    <t>Ngăn 9</t>
+  </si>
+  <si>
+    <t>Hiểu về Trump 249k</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>Trong HIỂU VỀ TRUMP, Newt Gingrich chia sẻ những gì ông thu nhận được từ hơn hai năm giúp Trump và đội ngũ của ông trong suốt chiến dịch tranh cử, cuộc bầu cử và trong những tháng đầu tiên trong nhiệm kỳ tổng thống.</t>
+  </si>
+  <si>
+    <t>SBA0018</t>
+  </si>
+  <si>
+    <t>Hillary clinton - bí mật quốc gia và sự hồi sinh 189k</t>
+  </si>
+  <si>
+    <t>Amie Parnes,Jonathan Allen</t>
+  </si>
+  <si>
+    <t>Cuốn sách Hillary Clinton – Bí mật quốc gia và sự hồi sinh xoay quanh các hoạt động chính trị quan trọng nhất của bà Hillary Clinton từ cuộc bầu cử Tổng thống năm 2008 cho đến trước cuộc bầu cử 2016, qua đó cho thấy một chân dung, tiểu sử chính trị sắc nét về Hillary Clinton, người có thể trở thành nữ Tổng thống đầu tiên của Hoa Kỳ.</t>
+  </si>
+  <si>
+    <t>SBA0027</t>
+  </si>
+  <si>
+    <t>Đời tổng giám mục Puginier - 249k</t>
+  </si>
+  <si>
+    <t>Louis Eugène Louvet</t>
+  </si>
+  <si>
+    <t>Đời Tổng Giám mục Puginier được tác giả Louis-Eugène Louvet thực hiện và hoàn thành hai năm (1894) sau khi Đức cha Puginier qua đời, là một trong những tác phẩm biên niên thuật lại tương đối đầy đủ và chi tiết về ba khía cạnh chính của cuộc đời một trong những nhân vật có những can hệ quan trọng mà vô cùng ngầm ẩn đối với xứ Bắc kỳ cuối thế kỷ XIX đầu thế kỷ XX: Đức cha Puginier, giám mục xứ Mauricastre, cố tư tế tông tòa miền Tây Bắc kỳ.</t>
+  </si>
+  <si>
+    <t>SBA0037</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Thế 89k</t>
+  </si>
+  <si>
+    <t>Hồi ký của bà, mặc dù không đầy đủ (viết vào năm 1963, tức hai mươi lăm năm trước khi mất), đã được con cháu của Đề Thám chia sẻ. Hồi ký đó cho phép chúng ta biết những sự kiện nào và những nhân vật nào là quan trọng nhất đối với bà trong suốt nửa đầu cuộc đời. Đồng thời, nó cũng cho phép chúng ta hình dung rõ nét hơn vai trò người cha, người chồng của Đề Thám vốn chỉ được lịch sử ghi nhận như là một thủ lĩnh kháng chiến. Bị những thế lực lớn thao túng, Hoàng Thị Thế buộc phải đi những con đường mà bà không chọn lựa. Tới khi không còn giá trị lợi dụng về mặt chính trị nữa, thì bà bị ruồng bỏ và lâm vào cảnh khốn quẫn.</t>
+  </si>
+  <si>
+    <t>SBA0059</t>
+  </si>
+  <si>
+    <t>Phúc ông tự truyện 175k</t>
+  </si>
+  <si>
+    <t>Fukuzawa Yukich</t>
+  </si>
+  <si>
+    <t>Cuốn tự truyện kể về những bước thăng trầm của cuộc đời Fukuzawa Yukichi từ khi sinh ra cho đến những năm tháng tuổi già. Qua từng chi tiết nhỏ, từng vấp váp trong đời sống thường nhật hiện lên chân dung một con người kiên nghị, quyết đoán, luôn độc lập trong suy nghĩ, sắc sảo trong phê phán nhưng về mặt tâm tư, tình cảm lại không kém phần trầm lắng, sâu sắc.</t>
+  </si>
+  <si>
+    <t>SBA0068</t>
+  </si>
+  <si>
+    <t>Mozart 459k</t>
+  </si>
+  <si>
+    <t>Maynard Solomon</t>
+  </si>
+  <si>
+    <t>Cuốn sách cung cấp một câu chuyện đầy hấp dẫn về cuộc đời Mozart, với các sự kiện, các bước ngoặt từ khi ông sinh ra vào năm 1756 và thời thơ ấu ở Salzburg cho đến thập niên đặc biệt của những buổi biểu diễn nổi tiếng ở các thủ đô châu Âu, nơi ông được các gia đình hoàng gia và khán giả yêu mến, tôn vinh như một thiên tài kỳ lạ. Cuốn sách cũng kể lại các bước thăng trầm của Mozart từ địa vị là người con được yêu thích của Salzburg trong những năm 1770, đến hành trình chinh phục Vienna cùng cuộc hôn nhân ở đó, từ những thăng trầm tài chính cho đến những nỗi sầu muộn ngày càng sâu sắc, cuối cùng kết thúc với sự ra đi ở tuổi còn rất trẻ của ông năm 1791.</t>
+  </si>
+  <si>
+    <t>SBA0122</t>
+  </si>
+  <si>
+    <t>Chơi jazz ở Việt Nam 259k</t>
+  </si>
+  <si>
+    <t>Stan BH Tan-Tangbau, Quyền Văn Minh</t>
+  </si>
+  <si>
+    <t>Cuốn sách kể lại câu chuyện về việc jazz đã ra đời ở Việt Nam như thế nào, tập trung vào câu chuyện cuộc đời của nghệ sĩ Quyền Văn Minh, người đã tận hiến đời mình cho việc phát triển jazz ở đất nước mình để thuật lại sống động cách nhạc jazz được nghe, được học và được biểu diễn. Cụ thể hơn, câu chuyện này là về nhạc jazz ở Hà Nội, mặc dù khi jazz mới phát triển ở đây, thì ở phần còn lại của đất nước không có gì để nói về jazz cả.</t>
+  </si>
+  <si>
+    <t>SBA0147</t>
+  </si>
+  <si>
+    <t>Paul Doumer - Toàn quyền Đông Dương (1897 - 1902) bàn đạp thuộc địa 129k</t>
+  </si>
+  <si>
+    <t>Amaury Lorin</t>
+  </si>
+  <si>
+    <t>Khi người ta nhận ra rằng thiếu hẳn mảng tư liệu về tiểu sử của Paul Doumer và kéo theo đó là sự thiếu hiểu biết về một nhân vật, dù gì đi nữa cũng đã chiếm một vị trí trọng yếu, một nhân vật mà dẫu đã đóng vai trò quan trọng hàng đầu tại Đông Dương cũng như trên sân khấu chính trị của chính quốc nhưng giờ lại đang bị lãng quên, thì khi đó ta hẳn sẽ thấy sự cần thiết của cuốn sách “Paul Doumer – Toàn quyền Đông Dương (1897 – 1902): Bàn đạp thuộc địa”.</t>
+  </si>
+  <si>
+    <t>SBA0152</t>
+  </si>
+  <si>
+    <t>Chuyện đời tôi 359k</t>
+  </si>
+  <si>
+    <t>Hans Christian Andersen</t>
+  </si>
+  <si>
+    <t>Với tự truyện Mit Livs Eventyr (Chuyện đời tôi) của ông, độc giả Việt Nam có dịp tiếp cận đại văn hào ở đa diện góc nhìn hơn, khi ông xuất hiện ở tư cách một nhà thơ, một kịch tác gia, một tiểu thuyết gia trước khi là một nhà văn chuyên viết truyện thần tiên cho thiếu nhi. Cũng qua tự truyện này, không chỉ thuật lại những năm tháng tuổi thơ cùng nhiều duyên may định mệnh đã tạo nên bước ngoặt thay đổi đời mình, Andersen còn tiết lộ những chi tiết thú vị về đời sống viết lách phong phú của mình, với chất liệu dồi dào được ông thu thập qua biết bao những chuyến du ký qua nhiều xứ sở châu  u, những cuộc gặp và tương tác với nhiều nhân vật nổi tiếng, tiêu biểu của thế kỷ XIX ở Đức, Pháp, Ý, Hà Lan, Thụy Điển, Anh, và cả những vùng đất và những công quốc mà giờ đây chỉ còn được chúng ta biết đến qua các tài liệu lịch sử… 
+Đầy ắp chi tiết thú vị, chứa đựng gần như toàn vẹn tâm hồn của một tác giả lãng mạn, đầy tình thương yêu dành cho con người, Chuyện đời tôi xứng đáng là cuốn sách tiếp theo của Andersen được “gối đầu giường” bên cạnh những tuyển tập  truyện thần tiên đã quá nổi tiếng của ông.</t>
+  </si>
+  <si>
+    <t>SBA0168</t>
+  </si>
+  <si>
+    <t>Tự truyện Benjamin Franklin 109k</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin là một trong những nhà lập quốc vĩ đại của nước Mỹ. Ông là người duy nhất đã ký tên vào cả bốn văn kiện quan trọng trong lịch sử nước Mỹ: Tuyên ngôn Độc lập, Hiệp ước Đồng minh với Pháp, Hiệp ước Hòa bình và Hiến pháp Hoa Kỳ. Benjamin Franklin là một nhân vật đại diện. Ông từng làm thợ nấu xà phòng, thợ in, nhà văn, khoa học gia kiêm nhà phát minh, lãnh đạo các tổ chức phục vụ cộng đồng. Bên cạnh đó ông cũng là một nhà ngoại giao có tài. Nhiều sử gia Hoa Kỳ công nhận ông là một nhà ngoại giao có năng lực và thành công nhất từ xưa đến nay.</t>
+  </si>
+  <si>
+    <t>SBA0171</t>
+  </si>
+  <si>
+    <t>Giáo dục Việt Nam dưới thời thuộc địa 139k</t>
+  </si>
+  <si>
+    <t>Đông Dương nói chung và Việt Nam nói riêng là một ca đặc biệt trong Đế chế Pháp. Việt Nam tiền thuộc địa đã có sẵn một hệ thống đào tạo quan bảng, khoa cử lấy khuôn mẫu từ chế độ khoa bảng Nho giáo. Cuối thế kỷ 19, chế độ khoa bảng này mất dần vị trí độc tôn vì khả năng kém thích nghi trước thời cuộc. Chỉ còn tinh thần hiếu học vốn là bản sắc văn hóa Việt vẫn được coi trọng, vì học hành là con đường tiến thân để thành đạt. Người Pháp đã biết cách đặt thuộc tính văn hóa Việt này vào hệ thống giáo dục thuộc địa tại Đông Dương, vốn được coi là một hệ thống đầy đủ và kiện toàn nhất trong tất cả các xứ thuộc địa của Pháp.</t>
+  </si>
+  <si>
+    <t>SBA0049</t>
+  </si>
+  <si>
+    <t>Việt Nam thế kỷ XVII Những góc nhìn từ bên ngoài 269k</t>
+  </si>
+  <si>
+    <t>Christoforo Borri và Samuel Baron (Olga Dror &amp; K. W. Taylor giới thiệu và chú giải)</t>
+  </si>
+  <si>
+    <t>Việt Nam thế kỷ XVII: Những góc nhìn từ bên ngoài là tác phẩm được hai nhà Việt Nam học là Olga Dror và K. W. Taylor đã dày công tìm hiểu và có những chú giải kỹ lưỡng, cùng phần giới thiệu hàm súc cho hai tác phẩm quan trọng trong công tác nghiên cứu về Việt Nam thế kỷ XVII. Đó là Ký sự xứ Đàng Trong của Cha Christoforo Borri và Mô tả vương quốc Đàng Ngoài của thương nhân Samuel Baron, với nhiều thông tin và mô tả giúp người đọc hiện đại dựng nên được bức tranh vừa toàn cảnh lại vừa có tính đối sánh về hai Đàng thời bấy giờ.</t>
+  </si>
+  <si>
+    <t>SBA0146</t>
+  </si>
+  <si>
+    <t>Nghề thuyết phục - Chuyện đời, chuyện nghề của bậc thầy PR</t>
+  </si>
+  <si>
+    <t>Haroid Burson</t>
+  </si>
+  <si>
+    <t>Harold Burson, người được PRWeek mô tả là “nhân vật nhiều ảnh hưởng nhất của ngành  PR trong thế kỷ 20”, có lẽ là cái tên nổi bật nhất trong ngành này hiện nay. Nhà sáng lập của Burson-Marsteller khổng lồ đã có một sự nghiệp 70 năm lừng lẫy, xây dựng một tập đoàn toàn cầu từ một công ty tư vấn chỉ có một người. Trong cuốn hồi ký hấp dẫn và giàu thông tin này, Burson lần lại sự nghiệp mình, từ lúc học tại Ole Miss tới lúc phục vụ trong Thế chiến II, làm nhiệm vụ tường thuật các phiên tòa Nuremberg, rồi bắt tay với Bill Marsteller, cùng nhau làm nên lịch sử trong một doanh nghiệp rồi sẽ trở thành một trong những công ty lớn nhất thế giới về mảng này, với hơn 60 văn phòng trên sáu lục địa. 
+Dùng các ví dụ về chuyện nghề lẫn chuyện cá nhân, Burson cho độc giả thấy những gì thực sự là PR – các thách thức, phương pháp luận, cũng như tác động của nó. Chính các giai thoại về khó khăn trong nghề PR, như vụ khủng hoảng Tylenol, việc loại bỏ cờ Liên minh miền Nam khỏi trường Ole Miss, hay vụ ra mắt “New Coke” là những minh họa cho các nguyên lý đã được thời gian thử thách của Buron về thế nào là quản lý khủng hoảng và PR siêu đẳng. Ông đã đan dệt những khoảnh khắc biểu tượng của lịch sử ngành PR vào câu chuyện của mình, khiến nó trở thành một cẩm nang lý thú và vô giá cho những ai muốn trở thành chuyên nghiệp trong bất kỳ ngành nào. 
+Không những mọi tổ chức mà mỗi cá nhân đều đang làm PR. Thông qua sự nghiệp đầy đột phá mà Burson mô tả là “một chuỗi những khoảnh khắc quyết định”, ông đã đặt ra các tiêu chuẩn cho hành vi công ty và cá nhân, nhấn mạnh vào trách nhiệm xã hội của công ty, sự xuất sắc của sản phẩm, và sự chính trực không thể khuất phục. Di sản của ông đã định hình nên nhiều thế hệ, và sẽ còn định hình cho nhiều thế hệ sắp tới.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0222-1
+</t>
+  </si>
+  <si>
+    <t>Ngăn 12</t>
+  </si>
+  <si>
+    <t>Cách mạng Pháp và Tâm lý học của các cuộc Cách Mạng 169k</t>
+  </si>
+  <si>
+    <t>Gustave Le</t>
+  </si>
+  <si>
+    <t>Lịch sử của cuộc Cách mạng Pháp trên thực tế được cấu thành từ một loạt những biến cố lịch sử song hành và thường độc lập với nhau: lịch sử chế độ cũ nát đang tàn lụi do không có những người bảo vệ, lịch sử những hội đồng cách mạng, lịch sử những phong trào quần chúng cùng thủ lĩnh của họ, lịch sử những đạo quân, lịch sử những thiết chế mới,… Tất cả những nấc thang lịch sử đa phần thể hiện sự xung đột của các động lực tâm lý học đểu cần phải được nghiên cứu bằng những phương pháp mượn từ khoa học tâm lý. – Trích Lời dẫn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0008
+</t>
+  </si>
+  <si>
+    <t>Những bài học lịch sử 105k</t>
+  </si>
+  <si>
+    <t>Những bài học lịch sử vốn là tác phẩm được viết ra như một phần vĩ thanh, ghi nhận những đúc kết của chính các tác giả trong quá trình đọc rà để tái bản bộ sách The Story of Civilization (Câu chuyện văn minh), với nhiều tính suy tư, chiêm nghiệm. Sách gồm mười ba tiểu luận được chia theo các chủ đề như “Do dự” (những thử thách nào mà bất cứ sử gia nào cũng phải trải qua), “Sinh học và lịch sử”, “Lịch sử và chiến tranh”, “Lịch sử và tôn giáo”…
+Với tập tiểu luận này, các tác giả từng đoạt giải Pulitzer Will &amp; Ariel Durant sẽ đưa chúng ta vào hành trình xuyên suốt lịch sử, khám phá những khả năng và hạn chế của loài người theo thời gian, giúp độc giả dễ dàng đi vào nội hàm triết học của các chu kỳ tiến bộ-suy tàn của xã hội loài người. Và thông qua những cuộc đời, ý tưởng và thành tựu vĩ đại xen kẽ với các chu kỳ chiến tranh và chinh phục từng xảy ra trong quá khứ, Will &amp; Ariel Durant vén màn hé lộ cho chúng ta hiểu được ý nghĩa bối cảnh lịch sử ở chính thời đại của mình.</t>
+  </si>
+  <si>
+    <t>SBA0012</t>
+  </si>
+  <si>
+    <t>Hiến pháp Mỹ được làm ra như thế nào 99k</t>
+  </si>
+  <si>
+    <t>Nguyễn Cảnh Bình</t>
+  </si>
+  <si>
+    <t>Cuốn sách này là một bản tóm lược đơn giản hơn cho những bạn trẻ và những người muốn hiểu về nước Mỹ và Hiến pháp Mỹ, nhưng không có nhiều thời gian. Cuốn sách lược bỏ những phần không quá quan trọng, chỉ giữ lại những phần có bản nhất trong khuôn khổ một cuốn sách mỏng nhưng vẫn đủ để độc giả hiểu về bản chất quá trình xây dựng nhà nước Mỹ.</t>
+  </si>
+  <si>
+    <t>SBA0029</t>
+  </si>
+  <si>
+    <t>Thượng kinh ký sự 69k</t>
+  </si>
+  <si>
+    <t>Hải Thượng Lãn Ông Lê Hữu Trác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hữu Trác biệt hiệu là Hải Thượng Lãn Ông, sinh vào thời Lê mạt (1721) con quan Thượng thư huyện Đường Hào tỉnh Hải Dương nay thuộc Hải Hưng.
+Không những là danh y, ông còn là một nhà văn, là ông tổ của nhà báo. Ông không chỉ truyền cho hậu thế bộ Y tông tâm lĩnh, Hải Thượng Lãn Ông Lê Hữu Trác còn để lại tập “Thượng Kinh kí sự”, viết vào thập niên 80 của thế kỷ XVIII (1781) một thời kỳ rối loạn của triều đình phong kiến Lê Trịnh – một giai đoạn khủng hoảng trầm trọng trước khi Quang Trung tiến quân ra Bắc Hà.
+Với thiên ký sự trung thực và tài hoa này, tác giả đã kể lại cuộc hành trình từ Nghệ Tĩnh về Thăng Long của mình để chữa bệnh cho Chúa Trịnh khi được vời về phủ Chúa do tiếng tăm lừng lẫy của một đại danh y. Thượng Kinh ký sự kể lại thời gian sống ở Kinh thành biết bao biến động lớn, tả lại sự giao du với các công hầu khanh tướng thời Lê mạt và lúc nào tác giả cũng mong thoát khỏi vòng công danh phú quý về với núi cũ non xưa.
+Tác phẩm được xem như thiên phóng sự sớm nhất của Việt Nam, thể hiện rõ tinh thần cá nhân của người viết là điều hiếm thấy thuở bấy giờ.
+Tranh trên bìa lấy từ cuốn sách A Description of the Kingdom of Tonqueen (Mô tả vương quốc Đàng Ngoài) của Samuel Baron xuất bản năm 1685. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0031
+</t>
+  </si>
+  <si>
+    <t>Vũ Man Tạp Lục Thư 199k</t>
+  </si>
+  <si>
+    <t>Ôn Khê Nguyễn Tấn</t>
+  </si>
+  <si>
+    <t>“Tập Vũ man tạp lục thư là cả một công trình nghiên cứu công phu lịch sử người Thượng nói chung, về người Thượng ở Quảng Ngãi, về việc bình người Thượng của triều Nguyễn</t>
+  </si>
+  <si>
+    <t>SBA0040</t>
+  </si>
+  <si>
+    <t>Xứ Trầm Hương 199k</t>
+  </si>
+  <si>
+    <t>Quách Tấn</t>
+  </si>
+  <si>
+    <t>Tôi chỉ làm một việc mà nhiều người có thể làm được, nếu muốn, là ghi chép lại những gì đã thấy, đã nghe, đã cảm trong mấy mươi năm sống cùng non nước Khánh Hòa.</t>
+  </si>
+  <si>
+    <t>SBA0041</t>
+  </si>
+  <si>
+    <t>Một chuyến du hành đến xứ Nam Hà (1792-1793) 99k</t>
+  </si>
+  <si>
+    <t>John Barrow</t>
+  </si>
+  <si>
+    <t>Cuốn sách được dịch từ ba chương viết về xứ Đàng Trong-Nam Hà trong tập du ký-du khảo, được John Barrow khởi thảo trong chuyến đi tới Trung Ho,  có lưu lại vùng biển Đà Nẵng xứ Nam Hà vào khoảng cuối thế kỷ XVIII, đầu thế kỷ XIX. Ông vừa miêu tả, tường thuật những gì ông trông thấy, bên cạnh đó ông còn nghiên cứu, tổng hợp những tài liệu khác để có những khảo luận của riêng mình về kinh tế - chính trị - lịch sử - xã hội ở vùng đất này.</t>
+  </si>
+  <si>
+    <t>SBA0057</t>
+  </si>
+  <si>
+    <t>Nhật Bản duy tân 30 năm 145k</t>
+  </si>
+  <si>
+    <t>Đào Trinh Nhất</t>
+  </si>
+  <si>
+    <t>Cuốn Nhật Bản duy tân 30 năm của tác giả Đào Trinh Nhất có thể được xem như một cuốn cẩm nang sử học dành cho những ai muốn tìm hiểu về Chính trị - Xã hội, đặc biệt đất nước, con người và văn hóa Nhật Bản, nhất là giai đoạn mà Nhật Bản thực hiện công cuộc duy tân.</t>
+  </si>
+  <si>
+    <t>SBA0070</t>
+  </si>
+  <si>
+    <t>Nhiều tác giả</t>
+  </si>
+  <si>
+    <t>Ngăn 13</t>
+  </si>
+  <si>
+    <t>Nhà lãnh đạo dám phục vụ</t>
+  </si>
+  <si>
+    <t>Người gây ảnh hưởng dám cho đi</t>
+  </si>
+  <si>
+    <t>Người dám cho đi bán được nhiều hơn</t>
+  </si>
+  <si>
+    <t>Nhà lãnh đạo dám cho đi</t>
+  </si>
+  <si>
+    <t>Góp nhặt Đông - Tây 2004</t>
+  </si>
+  <si>
+    <t>Túi khôn của Guy - Bài học từ cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q4: Từ những điều bình dị</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q6 : Và ý nghĩa cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q7: Những câu chuyện cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q8: Những câu chuyện cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q9: Vượt qua thử thách</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q10: Theo dòng thời gian</t>
+  </si>
+  <si>
+    <t>Sách TGĐ tặng</t>
+  </si>
+  <si>
+    <t>Sách Công ty trang bị</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q11: Những trải nghiệm cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q12: Nghệ thuật sáng tạo cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q13: Cách nghỉ mở con đường</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q14: Góc nhìn kỳ diệu của cuộc sống</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q15: Luôn là chính mình</t>
+  </si>
+  <si>
+    <t>Bộ sách hạt giống tâm hồn
+- Q16: Tìm lại bình yên</t>
+  </si>
+  <si>
+    <t>SBA0215-1</t>
+  </si>
+  <si>
+    <t>SBA0215-4</t>
+  </si>
+  <si>
+    <t>SBA0215-2</t>
+  </si>
+  <si>
+    <t>SBA0215-3</t>
+  </si>
+  <si>
+    <t>SBA0215-5</t>
+  </si>
+  <si>
+    <t>SBA0215-6</t>
+  </si>
+  <si>
+    <t>SBA0215-7</t>
+  </si>
+  <si>
+    <t>SBA0215-8</t>
+  </si>
+  <si>
+    <t>SBA0215-9</t>
+  </si>
+  <si>
+    <t>SBA0215-10</t>
+  </si>
+  <si>
+    <t>SBA0215-11</t>
+  </si>
+  <si>
+    <t>Cherly Bachelder</t>
+  </si>
+  <si>
+    <t>Khi bạn trở thành một lãnh đạo, người ta chờ bạn bước ra giữa ánh đèn rọi nơi trung tâm sân khấu. Mọi con mắt dán vào bạn – chờ xem bạn là ai, bạn sẽ nói gì, và bạn sẽ làm gì. Suy cho cùng, bạn là lãnh đạo mà.
+Sẽ thế nào nếu đèn đã rọi trên sân khấu nhưng bạn lại vẫn chưa có đó? Khi ấy điều gì sẽ xảy ra?
+Người ta sẽ hoang mang. Người ta sẽ thắc mắc bạn đang ở đâu. Người ta sẽ nghĩ rằng bạn không hiểu được vai trò của mình.
+Cho đến khi họ nhận ra điều bạn đang làm.
+Bạn là một loại lãnh đạo khác. Không tìm kiếm ánh đèn rọi.
+Thực vậy, bạn đã rời khỏi sân khấu để đi tìm những người chiếu đèn.
+Bạn sẽ chuyển trọng tâm của ánh đèn rọi sang những người đã đề nghị bạn làm lãnh đạo.
+Bạn sẽ dẫn dắt người ta tới những đích đến táo bạo – vượt xa khỏi trí tưởng tượng của họ
+Bạn sẽ tập trung mãnh liệt vào việc phục vụ họ thật tốt trên hành trình ấy.
+Bạn sẽ giúp họ phát hiện ra ý nghĩa trong công việc họ làm, và các nguyên tắc trong những hành động của họ.
+Bạn sẽ dám phục vụ.</t>
+  </si>
+  <si>
+    <t>Bob Burg&amp; John David Mann</t>
+  </si>
+  <si>
+    <t>Người dám cho đi kể về câu chuyện của một thanh niên đầy tham vọng tên Joe, đang khát khao thành công, Joe là một người dám dấn thân thật sự, dù đôi khi anh cảm thấy như thế càng làm việc gấp rút và cật lực, những mục tiêu của anh càng khó đạt được.
+Và rồi một ngày nọ, đang vô vọng để cứu doanh số của một quý tồi tệ, anh đã tìm xin lời khuyên từ Prinda, một nhà tư vấn huyền thoại mà nhiều người chỉ đơn giản gọi ông là Chủ tịch.
+Tuần tiếp sau đó, Prinda giới thiệu cho Joe gặp gỡ với những “người dám cho đi”: Chủ cửa hàng, CEO, nhà tư vấn tài chính, nhà môi giới bất động sản, và “Người kết nối – người đã mang họ lại với nhau. Những người bạn của Prinda chia sẻ với Joe 5 quy luật của thành công tột đỉnh và chỉ cho anh cách mở rộng lòng ra với điều kỳ diệu của sự cho đi.</t>
+  </si>
+  <si>
+    <t>SBA0217-1</t>
+  </si>
+  <si>
+    <t>SBA0216</t>
+  </si>
+  <si>
+    <t>SBA0217-2</t>
+  </si>
+  <si>
+    <t>Trong mười hai năm ở Marden Group, Ben đã thăng tiến từ bộ phận sale, sang quản trị sale, rồi sang quản lý bộ phận sale. Giờ, vào tuổi ba mươi bốn non trẻ, anh đã được bổ nhiệm vào một vị trí – tuy còn thời gian thử thách - ở phòng Sáp nhập &amp; Thâu tóm đầy cạnh tranh của công ty. Nhiệm vụ của Ben là dẫn dắt một thương vụ - “một thương vụ nuột nà” (như lời sếp đã nhấn mạnh khi trao Ben công việc vào ba ngày trước) với công ty mới thâu tóm này, giúp họ trở thành một phần thành công, sinh lời cho Marden Group. Một đại gia đình hạnh phúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0219-1
+</t>
+  </si>
+  <si>
+    <t>Sáng Ánh</t>
+  </si>
+  <si>
+    <t>Công và tư
+Chuyện dài Hussein
+Nếu ông Hussein chết thì hết chuyện, nhưng đằng này ông bị bắt, nên mỗi tuần lại mang thêm vài tin mới và năm 2004 có vẻ đầy hứa hẹn. Ông bắt đầu khai ra của mà ông giấu giếm ở nước ngoài, đây bảo là 15 tỉ USD, kia nói những 40. Trước đây những ước lượng chỉ thấy có vài ba, thấy củng đã đủ, nhưng giờ đã thất thế, biết đâu ông Hussein không hô lên cho sướng miệng? Việc xét xử ông cũng chưa ngã ngũ, nhưng thể nào trước tòa ông Hussein cũng có nhiều điều để tiết lộ, hẳn sẽ làm phiền nhiều bạn cũ của ông, trước hết là Hoa Kỳ đã nhiều năm ủng hộ, xui khiến, đùm bọc và thậm thụt với cá nhân ông cũng như với chế độ của đảng Baath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0220-1
+</t>
+  </si>
+  <si>
+    <t>Guy Kawasaki</t>
+  </si>
+  <si>
+    <t>Guy Kawasaki, biểu tượng của Thung lũng Silicon và tác giả sách bán chạy nhất, chia sẻ những câu chuyện không tưởng về cuộc đời ông và những bài học chúng ta có thể rút ra từ những câu chuyện đó.
+Guy Kawasaki vốn là một “lão làng” trong thế giới công nghệ kể từ khi bước vào đội ngũ Macintosh sơ khai của Apple vào những năm 1980. Ông được nể trọng vì “túi khôn” trong khởi sự doanh nghiệp, đầu tư mạo hiểm, tiếp thị và “truyền giáo” trong kinh doanh–đây là những thứ ông đã chia sẻ trong những sách bán chạy của mình như The Art of the Start(Khởi thuật) và Enchantment (Sự mê hoặc). Nhưng trước khi có tất cả những điều ấy, Guy chỉ là một cậu bé con nhà bình thường ở Hawaii, một hậu duệ của những di dân Nhật Bản, yêu môn bóng bầu dục và chỉ được điểm C+ trong môn tiếng Anh hồi lớp Chín.
+Túi khôn của Guy là cuốn sách riêng tư nhất nói về hành trình đáng ngạc nhiên của ông. Đây không phải là một tự truyện kiểu truyền thống mà chỉ là một chuỗi các câu chuyện nhỏ. Guy gọi đùa nó là Miso Soup for the Soul (Xúp miso cho Tâm hồn) do những câu chuyện này (giống như những câu chuyện trong loạt Chicken Soup for the Soul) phản ánh các kinh nghiệm đa dạng đã khai sáng và mang cảm hứng cho ông.
+Thí dụ, bạn sẽ đi theo Guy khi ông:
+•    Nhận được công việc đầu tiên trong ngành kim hoàn–hóa ra lại là một môi trường huấn luyện tốt đến ngạc nhiên cho thế giới công nghệ.
+•    Hạ thấp một đối tác tiềm năng ngay trước mặt CEO của công ty ấy, do Steve Jobs “gài” một cách mưu mẹo.
+•    Phá hỏng sự nghiệp của chính mình tại Apple chỉ bằng câu nói, “Được thôi, Steve. Tôi cũng không tin ông” khi Jobs đòi lại bản xem thử của chiến dịch quảng cáo Think Differently (Nghĩ khác).
+•    Tự đánh giá tầm quan trọng của mình sau khi bị bốn cô gái trẻ nhầm với Jackie Chan.
+•    Học lướt ván vào tuổi 62–từ đó nghiệm ra ta có thể khám phá một đam mê mới vào bất kỳ tuổi nào, nhưng càng trẻ thì càng dễ hơn!
+Trong sách này, Guy nói về mọi thứ, từ các giá trị đạo đức tới kỹ năng kinh doanh tới làm cha mẹ. Như ông viết, “tôi hy vọng những câu chuyện của mình giúp bạn sống một cuộc đời có ý nghĩa hơn, vui vẻ và làm được nhiều việc hơn. Nếu Túi khôn của Guy thành công trong việc này, thì đó mới là câu chuyện hay nhất trong mọi câu chuyện”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA0221-1
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,19 +2200,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,8 +2229,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,20 +2515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176:B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" style="2"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="35.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -427,13 +2559,4662 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="360" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D173" s="2">
+        <v>1</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D174" s="2">
+        <v>1</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D175" s="2">
+        <v>4</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D176" s="2">
+        <v>5</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D177" s="2">
+        <v>5</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D180" s="2">
+        <v>3</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB84D7E-D325-4F17-AB7B-C3FC5328FE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F6439-CB1B-4071-B113-A8B79D1D0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="90" windowWidth="19335" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17295" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="667">
   <si>
     <t>title</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Bạn đang ở đây 95k</t>
-  </si>
-  <si>
-    <t>Khoa học</t>
   </si>
   <si>
     <t>Nicholas Crane</t>
@@ -73,9 +70,6 @@
     <t>Yến Hội 135k</t>
   </si>
   <si>
-    <t>Kinh điển</t>
-  </si>
-  <si>
     <t>Platon</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t xml:space="preserve">Trò chơi và thú tiêu khiển của người Huế 139k </t>
   </si>
   <si>
-    <t>Lịch sử Việt Nam</t>
-  </si>
-  <si>
     <t>Trần Đức Anh Sơn</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Thời khắc tươi đẹp 159k</t>
   </si>
   <si>
-    <t>văn học</t>
-  </si>
-  <si>
     <t>Nina Rigg</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>Phono Sapiens - Loài người mới sinh ra từ điện thoại thông minh 159k</t>
   </si>
   <si>
-    <t>Lịch sử Thế giới</t>
-  </si>
-  <si>
     <t>Jae Boong Choi</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Tủ sách đời người: Khuyến học 129k</t>
   </si>
   <si>
-    <t>Nhật Bản</t>
-  </si>
-  <si>
     <t>Fukuzawa Yukichi</t>
   </si>
   <si>
@@ -182,9 +164,6 @@
   </si>
   <si>
     <t>Vũ trụ từ hư không 145k</t>
-  </si>
-  <si>
-    <t>Vật lý</t>
   </si>
   <si>
     <t>Lawrence M. Krauss</t>
@@ -249,9 +228,6 @@
     <t>ISMS - Hiểu về nghệ thuật hiện đại 239k</t>
   </si>
   <si>
-    <t>Nghệ thuật</t>
-  </si>
-  <si>
     <t>Sam Phillips</t>
   </si>
   <si>
@@ -262,9 +238,6 @@
   </si>
   <si>
     <t>Xã hội tỉnh táo 268k</t>
-  </si>
-  <si>
-    <t>Tâm lý học</t>
   </si>
   <si>
     <t>Erich Fromm</t>
@@ -292,9 +265,6 @@
     <t>Tủ sách đời người: Chàng hải âu kỳ diệu 109k</t>
   </si>
   <si>
-    <t>Thiếu nhi</t>
-  </si>
-  <si>
     <t>Richard Bach</t>
   </si>
   <si>
@@ -366,9 +336,6 @@
     <t>Ngăn 1</t>
   </si>
   <si>
-    <t>Quản trị</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bộ sách Havard Business Review
 - Quyển 1: Lãnh đạo </t>
   </si>
@@ -454,9 +421,6 @@
     <t>Giấc mơ Việt Nam tôi T2: Còn mãi hương xa 239k</t>
   </si>
   <si>
-    <t>Văn học</t>
-  </si>
-  <si>
     <t>Nguyễn Đăng Hưng</t>
   </si>
   <si>
@@ -467,9 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cuộc đời bất tử của Henrietta Lacks 269k </t>
-  </si>
-  <si>
-    <t>y học</t>
   </si>
   <si>
     <t>Rebecca Skloot</t>
@@ -533,9 +494,6 @@
     <t>Lược sử ngôn ngữ - Chuyện kể về phát minh vĩ đại nhất của loài người 239k</t>
   </si>
   <si>
-    <t>Ngôn ngữ</t>
-  </si>
-  <si>
     <t>Daniel L. Everett</t>
   </si>
   <si>
@@ -663,9 +621,6 @@
   </si>
   <si>
     <t>Gen Lịch sử và tương lai của nhân loại 365k</t>
-  </si>
-  <si>
-    <t>khoa học</t>
   </si>
   <si>
     <t>Siddhartha Mukherjee</t>
@@ -806,9 +761,6 @@
   </si>
   <si>
     <t>Những đỉnh cao chỉ huy (bìa cứng) 429k</t>
-  </si>
-  <si>
-    <t>Kinh tế</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel Yergin và Joseph Stanilaw </t>
@@ -823,9 +775,6 @@
   </si>
   <si>
     <t>Fryderyk Chopin: Cuộc đời và thời đại (BC) 499k</t>
-  </si>
-  <si>
-    <t>Âm nhạc</t>
   </si>
   <si>
     <t>Alan Walker</t>
@@ -931,9 +880,6 @@
     <t>Thanh lọc não bộ 169k</t>
   </si>
   <si>
-    <t xml:space="preserve">Y sinh </t>
-  </si>
-  <si>
     <t>Bác sĩ David Perlmutter, Bác sĩ Austin Perlmutter, Kristin Loberg chấp bút</t>
   </si>
   <si>
@@ -941,9 +887,6 @@
   </si>
   <si>
     <t>Dinh dưỡng lành mạnh - Ngại gì bệnh tim 259k</t>
-  </si>
-  <si>
-    <t>Y học</t>
   </si>
   <si>
     <t>Joel Fuhrman</t>
@@ -1216,9 +1159,6 @@
     <t>Bài học Phần Lan 3.0 199k</t>
   </si>
   <si>
-    <t>Giáo dục</t>
-  </si>
-  <si>
     <t>Pasi Sahlberg</t>
   </si>
   <si>
@@ -1437,9 +1377,6 @@
   </si>
   <si>
     <t>Bắt đầu từ trứng 199k</t>
-  </si>
-  <si>
-    <t>Mẹ và bé</t>
   </si>
   <si>
     <t>Rebecca Fett</t>
@@ -2145,10 +2082,6 @@
     <t>Trong mười hai năm ở Marden Group, Ben đã thăng tiến từ bộ phận sale, sang quản trị sale, rồi sang quản lý bộ phận sale. Giờ, vào tuổi ba mươi bốn non trẻ, anh đã được bổ nhiệm vào một vị trí – tuy còn thời gian thử thách - ở phòng Sáp nhập &amp; Thâu tóm đầy cạnh tranh của công ty. Nhiệm vụ của Ben là dẫn dắt một thương vụ - “một thương vụ nuột nà” (như lời sếp đã nhấn mạnh khi trao Ben công việc vào ba ngày trước) với công ty mới thâu tóm này, giúp họ trở thành một phần thành công, sinh lời cho Marden Group. Một đại gia đình hạnh phúc</t>
   </si>
   <si>
-    <t xml:space="preserve">SBA0219-1
-</t>
-  </si>
-  <si>
     <t>Sáng Ánh</t>
   </si>
   <si>
@@ -2176,8 +2109,10 @@
 Trong sách này, Guy nói về mọi thứ, từ các giá trị đạo đức tới kỹ năng kinh doanh tới làm cha mẹ. Như ông viết, “tôi hy vọng những câu chuyện của mình giúp bạn sống một cuộc đời có ý nghĩa hơn, vui vẻ và làm được nhiều việc hơn. Nếu Túi khôn của Guy thành công trong việc này, thì đó mới là câu chuyện hay nhất trong mọi câu chuyện”.</t>
   </si>
   <si>
-    <t xml:space="preserve">SBA0221-1
-</t>
+    <t>SBA0221-1</t>
+  </si>
+  <si>
+    <t>SBA0219-1</t>
   </si>
 </sst>
 </file>
@@ -2517,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:B180"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,4654 +2498,4654 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="B23" s="2">
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="B24" s="2">
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="B25" s="2">
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="B27" s="2">
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="B28" s="2">
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="B29" s="2">
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B30" s="2">
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="B31" s="2">
+        <v>18</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="B32" s="2">
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="B33" s="2">
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B34" s="2">
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="B35" s="2">
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>114</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>118</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>122</v>
+      </c>
+      <c r="B38" s="2">
+        <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
+      </c>
+      <c r="B40" s="2">
+        <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>134</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>138</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>146</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>155</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>158</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>19</v>
+        <v>162</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>19</v>
+        <v>166</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>169</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
+        <v>173</v>
+      </c>
+      <c r="B51" s="2">
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>181</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>185</v>
+      </c>
+      <c r="B54" s="2">
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>189</v>
+      </c>
+      <c r="B55" s="2">
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>197</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>203</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>207</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>211</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>214</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>218</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>222</v>
+      </c>
+      <c r="B63" s="2">
+        <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D63" s="2">
         <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>226</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>230</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>234</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
+      </c>
+      <c r="B67" s="2">
+        <v>13</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
+      </c>
+      <c r="B68" s="2">
+        <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>41</v>
+        <v>247</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>251</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>254</v>
+      </c>
+      <c r="B71" s="2">
+        <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>258</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>19</v>
+        <v>262</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>19</v>
+        <v>266</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>269</v>
+      </c>
+      <c r="B75" s="2">
+        <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
+      </c>
+      <c r="B76" s="2">
+        <v>15</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>296</v>
+        <v>277</v>
+      </c>
+      <c r="B77" s="2">
+        <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>296</v>
+        <v>280</v>
+      </c>
+      <c r="B78" s="2">
+        <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
+      </c>
+      <c r="B79" s="2">
+        <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="B80" s="2">
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
+      </c>
+      <c r="B81" s="2">
+        <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="B82" s="2">
+        <v>11</v>
+      </c>
       <c r="C82" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
+      </c>
+      <c r="B83" s="2">
+        <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D83" s="2">
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>296</v>
+        <v>304</v>
+      </c>
+      <c r="B84" s="2">
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
+      </c>
+      <c r="B85" s="2">
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
+      </c>
+      <c r="B86" s="2">
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>296</v>
+        <v>316</v>
+      </c>
+      <c r="B87" s="2">
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>296</v>
+        <v>320</v>
+      </c>
+      <c r="B88" s="2">
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>296</v>
+        <v>324</v>
+      </c>
+      <c r="B89" s="2">
+        <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>296</v>
+        <v>328</v>
+      </c>
+      <c r="B90" s="2">
+        <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>296</v>
+        <v>332</v>
+      </c>
+      <c r="B91" s="2">
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D91" s="2">
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
+      </c>
+      <c r="B92" s="2">
+        <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>296</v>
+        <v>339</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>346</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>19</v>
+        <v>350</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>19</v>
+        <v>354</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>19</v>
+        <v>358</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>19</v>
+        <v>362</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
+      </c>
+      <c r="B99" s="2">
+        <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>14</v>
+        <v>370</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>14</v>
+        <v>374</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="D101" s="2">
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>378</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>41</v>
+        <v>382</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D103" s="2">
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>386</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="D104" s="2">
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>41</v>
+        <v>390</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="D105" s="2">
         <v>1</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>394</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="D106" s="2">
         <v>1</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>19</v>
+        <v>398</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>19</v>
+        <v>401</v>
+      </c>
+      <c r="B108" s="2">
+        <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D108" s="2">
         <v>1</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>19</v>
+        <v>405</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>19</v>
+        <v>409</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>19</v>
+        <v>413</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D111" s="2">
         <v>1</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="H112" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>421</v>
+      </c>
+      <c r="B113" s="2">
+        <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D113" s="2">
         <v>1</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>85</v>
+        <v>425</v>
+      </c>
+      <c r="B114" s="2">
+        <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D114" s="2">
         <v>1</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>85</v>
+        <v>429</v>
+      </c>
+      <c r="B115" s="2">
+        <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D115" s="2">
         <v>1</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>51</v>
+        <v>433</v>
+      </c>
+      <c r="B116" s="2">
+        <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D116" s="2">
         <v>1</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>459</v>
+        <v>438</v>
+      </c>
+      <c r="B117" s="2">
+        <v>17</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="D117" s="2">
         <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
+      </c>
+      <c r="B118" s="2">
+        <v>17</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D118" s="2">
         <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>296</v>
+        <v>446</v>
+      </c>
+      <c r="B119" s="2">
+        <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>296</v>
+        <v>450</v>
+      </c>
+      <c r="B120" s="2">
+        <v>11</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="D120" s="2">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>296</v>
+        <v>454</v>
+      </c>
+      <c r="B121" s="2">
+        <v>11</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="D121" s="2">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>296</v>
+        <v>457</v>
+      </c>
+      <c r="B122" s="2">
+        <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>296</v>
+        <v>461</v>
+      </c>
+      <c r="B123" s="2">
+        <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="D123" s="2">
         <v>1</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>296</v>
+        <v>465</v>
+      </c>
+      <c r="B124" s="2">
+        <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="D124" s="2">
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>296</v>
+        <v>469</v>
+      </c>
+      <c r="B125" s="2">
+        <v>11</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="D125" s="2">
         <v>1</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>296</v>
+        <v>473</v>
+      </c>
+      <c r="B126" s="2">
+        <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D126" s="2">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>296</v>
+        <v>477</v>
+      </c>
+      <c r="B127" s="2">
+        <v>11</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D127" s="2">
         <v>1</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>296</v>
+        <v>481</v>
+      </c>
+      <c r="B128" s="2">
+        <v>11</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="D128" s="2">
         <v>1</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>296</v>
+        <v>485</v>
+      </c>
+      <c r="B129" s="2">
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="D129" s="2">
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>9</v>
+        <v>489</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D130" s="2">
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>9</v>
+        <v>492</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="D131" s="2">
         <v>1</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>296</v>
+        <v>496</v>
+      </c>
+      <c r="B132" s="2">
+        <v>11</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="D132" s="2">
         <v>1</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>24</v>
+        <v>500</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="D133" s="2">
         <v>1</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>296</v>
+        <v>504</v>
+      </c>
+      <c r="B134" s="2">
+        <v>11</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="D134" s="2">
         <v>1</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>296</v>
+        <v>508</v>
+      </c>
+      <c r="B135" s="2">
+        <v>11</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="D135" s="2">
         <v>1</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>296</v>
+        <v>512</v>
+      </c>
+      <c r="B136" s="2">
+        <v>11</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="D136" s="2">
         <v>1</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="H136" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>296</v>
+        <v>516</v>
+      </c>
+      <c r="B137" s="2">
+        <v>11</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D137" s="2">
         <v>1</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>296</v>
+        <v>520</v>
+      </c>
+      <c r="B138" s="2">
+        <v>11</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="D138" s="2">
         <v>1</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>296</v>
+        <v>524</v>
+      </c>
+      <c r="B139" s="2">
+        <v>11</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="D139" s="2">
         <v>1</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>296</v>
+        <v>528</v>
+      </c>
+      <c r="B140" s="2">
+        <v>11</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="D140" s="2">
         <v>1</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>138</v>
+        <v>532</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="D141" s="2">
         <v>1</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>41</v>
+        <v>537</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>41</v>
+        <v>541</v>
+      </c>
+      <c r="B143" s="2">
+        <v>5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="D143" s="2">
         <v>2</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>19</v>
+        <v>545</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="D144" s="2">
         <v>1</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>19</v>
+        <v>549</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D145" s="2">
         <v>2</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>46</v>
+        <v>552</v>
+      </c>
+      <c r="B146" s="2">
+        <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D146" s="2">
         <v>2</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>260</v>
+        <v>556</v>
+      </c>
+      <c r="B147" s="2">
+        <v>14</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="D147" s="2">
         <v>1</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>19</v>
+        <v>560</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="D148" s="2">
         <v>1</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>19</v>
+        <v>564</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="D149" s="2">
         <v>1</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="H149" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>568</v>
+      </c>
+      <c r="B150" s="2">
+        <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="D150" s="2">
         <v>1</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>138</v>
+        <v>572</v>
+      </c>
+      <c r="B151" s="2">
+        <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="D151" s="2">
         <v>1</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>19</v>
+        <v>576</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>19</v>
+        <v>579</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="D153" s="2">
         <v>1</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>138</v>
+        <v>583</v>
+      </c>
+      <c r="B154" s="2">
+        <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="D154" s="2">
         <v>2</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>14</v>
+        <v>588</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>255</v>
+        <v>592</v>
+      </c>
+      <c r="B156" s="2">
+        <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>41</v>
+        <v>595</v>
+      </c>
+      <c r="B157" s="2">
+        <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="D157" s="2">
         <v>2</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>19</v>
+        <v>599</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>19</v>
+        <v>603</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="D159" s="2">
         <v>1</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>19</v>
+        <v>607</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="D160" s="2">
         <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>19</v>
+        <v>611</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="D161" s="2">
         <v>2</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>46</v>
+        <v>615</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="D162" s="2">
         <v>2</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>386</v>
+        <v>627</v>
+      </c>
+      <c r="B163" s="2">
+        <v>16</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D163" s="2">
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>386</v>
+        <v>628</v>
+      </c>
+      <c r="B164" s="2">
+        <v>16</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>386</v>
+        <v>629</v>
+      </c>
+      <c r="B165" s="2">
+        <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>386</v>
+        <v>630</v>
+      </c>
+      <c r="B166" s="2">
+        <v>16</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>386</v>
+        <v>631</v>
+      </c>
+      <c r="B167" s="2">
+        <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>386</v>
+        <v>632</v>
+      </c>
+      <c r="B168" s="2">
+        <v>16</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>386</v>
+        <v>635</v>
+      </c>
+      <c r="B169" s="2">
+        <v>16</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>386</v>
+        <v>636</v>
+      </c>
+      <c r="B170" s="2">
+        <v>16</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>386</v>
+        <v>637</v>
+      </c>
+      <c r="B171" s="2">
+        <v>16</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>386</v>
+        <v>638</v>
+      </c>
+      <c r="B172" s="2">
+        <v>16</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D172" s="2">
         <v>1</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>386</v>
+        <v>639</v>
+      </c>
+      <c r="B173" s="2">
+        <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>386</v>
+        <v>640</v>
+      </c>
+      <c r="B174" s="2">
+        <v>16</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>386</v>
+        <v>621</v>
+      </c>
+      <c r="B175" s="2">
+        <v>16</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="D175" s="2">
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>386</v>
+        <v>622</v>
+      </c>
+      <c r="B176" s="2">
+        <v>16</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D176" s="2">
         <v>5</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>386</v>
+        <v>623</v>
+      </c>
+      <c r="B177" s="2">
+        <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D177" s="2">
         <v>5</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>386</v>
+        <v>624</v>
+      </c>
+      <c r="B178" s="2">
+        <v>16</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D178" s="2">
         <v>2</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>386</v>
+        <v>625</v>
+      </c>
+      <c r="B179" s="2">
+        <v>16</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="D179" s="2">
         <v>2</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>386</v>
+        <v>626</v>
+      </c>
+      <c r="B180" s="2">
+        <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="D180" s="2">
         <v>3</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F6439-CB1B-4071-B113-A8B79D1D0358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF439DC-D380-41D3-B4BF-C845C528496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="17295" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="22545" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="693">
   <si>
     <t>title</t>
   </si>
@@ -334,10 +334,6 @@
   </si>
   <si>
     <t>Ngăn 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bộ sách Havard Business Review
-- Quyển 1: Lãnh đạo </t>
   </si>
   <si>
     <t>Bộ sách Havard Business Review - Quyển 2: Marketing chiến lược</t>
@@ -2114,12 +2110,94 @@
   <si>
     <t>SBA0219-1</t>
   </si>
+  <si>
+    <t>photo_url</t>
+  </si>
+  <si>
+    <t>https://www.vinabook.com/images/detailed/360/P91714Escan0001.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dtv-ebook.com/images/sach-moi-phat-hanh/2019/yen-hoi-va-phaedrus-tac-gia-platon.jpg</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/414/537/products/43033226-79e3-4182-afcb-55d3dfd20236.jpg?v=1671349837817</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2020/02/khoanh-khac-tuoi-dep-ok.jpg</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.net/fd5775-40602/ps/20191113_K3WqrdfSd489EF0SZElQWcue.jpg</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/1a7c93ad401e5e97658b829c05ad07f9</t>
+  </si>
+  <si>
+    <t>https://product.hstatic.net/200000273991/product/than_thoai_hy_lap_b1_bda573b24e924636b23308025ba2d834_master.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/p/h/phono-sapiens-01-1.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/ts/product/61/aa/88/cee86f519d7b45c6f0c9d63f360b2d4b.jpg</t>
+  </si>
+  <si>
+    <t>https://lzd-img-global.slatic.net/g/p/1b685abefce324eca045662aad10c004.jpg_720x720q80.jpg</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2019/12/Trat-tu-thoi-gian.jpg</t>
+  </si>
+  <si>
+    <t>https://newshop.vn/public/uploads/products/2656/7-bai-hoc-hay-nhat-ve-vat-ly.jpg</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.net/fd5775-40602/ps/20200130_bcR3v7yOovHVPKDfeb6oXVjD.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcToYDpV4lwlyUZvRR7VEHNsIXiiOxQk70eQ0NqbHvZ4RXegkDKxThfDWDsMKX2_ON78gNQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.net/fd5775-40602/ps/20210321_zPFSkdWzHnvgSurzzKfmVm5C.png</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.net/fd5775-40602/ps/20230215_lu3D4bfiTQMaoNXJ.jpeg</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/t/a/tam_ly_hoc_dam_dong_tai_ban_2018_1_2018_08_04_09_27_19.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/8/9/8935270703738.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/8/9/8935270703639.jpg</t>
+  </si>
+  <si>
+    <t>Harvard Business Review</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/w1200/ts/product/6f/90/61/0a9050b68854da0082a3cffc8169201f.jpg</t>
+  </si>
+  <si>
+    <t>Bộ sách Havard Business Review
+- Quyển 1: Lãnh đạo</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/100/197/269/products/mar…uyen-thong-giao-tiep-copy-min.jpg?v=1676284428930</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:AN…TBKu_U7ovE49dPvuC_xIFekzmKUM1UhENxqTkzF4&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/d/b/dbfe7b691289e6d7bf985.jpg</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/grande/100/197/269/products/truyen-thong-giao-tiep-outline-26-2-21-truyen-thong-giao-tiep-copy-min.jpg?v=1676284849053</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,6 +2215,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2159,10 +2245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2170,8 +2257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2450,10 +2541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2468,7 +2559,7 @@
     <col min="8" max="16384" width="35.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,8 +2584,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2517,10 +2611,13 @@
         <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2543,10 +2640,13 @@
         <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2569,10 +2669,13 @@
         <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2595,10 +2698,13 @@
         <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2621,10 +2727,13 @@
         <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2647,10 +2756,13 @@
         <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2673,10 +2785,13 @@
         <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2699,10 +2814,13 @@
         <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2725,10 +2843,13 @@
         <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -2751,10 +2872,13 @@
         <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -2777,10 +2901,13 @@
         <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -2803,10 +2930,13 @@
         <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>55</v>
       </c>
@@ -2829,10 +2959,13 @@
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -2855,10 +2988,13 @@
         <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2881,10 +3017,13 @@
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -2907,10 +3046,13 @@
         <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
@@ -2933,10 +3075,13 @@
         <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
@@ -2959,10 +3104,13 @@
         <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2985,24 +3133,27 @@
         <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>688</v>
       </c>
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>83</v>
@@ -3011,24 +3162,27 @@
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>84</v>
@@ -3037,24 +3191,27 @@
         <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2">
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>85</v>
@@ -3063,24 +3220,27 @@
         <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>86</v>
@@ -3089,24 +3249,27 @@
         <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>115</v>
+        <v>686</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>87</v>
@@ -3115,24 +3278,27 @@
         <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2">
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>88</v>
@@ -3141,24 +3307,24 @@
         <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2">
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>89</v>
@@ -3167,24 +3333,24 @@
         <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>90</v>
@@ -3193,24 +3359,24 @@
         <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>91</v>
@@ -3219,24 +3385,24 @@
         <v>98</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>92</v>
@@ -3245,24 +3411,24 @@
         <v>98</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2">
         <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
@@ -3271,24 +3437,24 @@
         <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2">
         <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>94</v>
@@ -3297,24 +3463,24 @@
         <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="2">
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>95</v>
@@ -3323,24 +3489,24 @@
         <v>98</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2">
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>96</v>
@@ -3349,24 +3515,24 @@
         <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="2">
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>97</v>
@@ -3375,2846 +3541,2846 @@
         <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="2">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="2">
         <v>6</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="2">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2">
         <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="2">
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="2">
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" s="2">
         <v>12</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="2">
         <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B53" s="2">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2">
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2">
         <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B56" s="2">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="2">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" s="2">
         <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="2">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="2">
         <v>2</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D60" s="2">
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="2">
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="2">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D63" s="2">
         <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B65" s="2">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B66" s="2">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B67" s="2">
         <v>13</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" s="2">
         <v>2</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B68" s="2">
         <v>14</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2">
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" s="2">
         <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="2">
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="G71" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="G74" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B75" s="2">
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B76" s="2">
         <v>15</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D76" s="2">
         <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B77" s="2">
         <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D77" s="2">
         <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="H77" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B78" s="2">
         <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B79" s="2">
         <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="G79" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B80" s="2">
         <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="2">
         <v>2</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="G80" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B81" s="2">
         <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="2">
-        <v>1</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="G81" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2">
         <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D82" s="2">
-        <v>1</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="G82" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B83" s="2">
         <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="G83" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B84" s="2">
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B85" s="2">
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B86" s="2">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B87" s="2">
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="G87" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" s="2">
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="G88" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B89" s="2">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B90" s="2">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B91" s="2">
         <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D91" s="2">
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B92" s="2">
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B93" s="2">
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="G93" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B95" s="2">
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B96" s="2">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="G96" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B97" s="2">
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B98" s="2">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B99" s="2">
         <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="G99" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B100" s="2">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="G101" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B102" s="2">
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D102" s="2">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="G102" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B103" s="2">
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D103" s="2">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B104" s="2">
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B105" s="2">
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D105" s="2">
-        <v>1</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B106" s="2">
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D106" s="2">
-        <v>1</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="G106" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B107" s="2">
         <v>3</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D107" s="2">
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B108" s="2">
         <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="G108" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B109" s="2">
         <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D109" s="2">
-        <v>1</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B110" s="2">
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D110" s="2">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B111" s="2">
         <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D111" s="2">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="F111" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="G111" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B112" s="2">
         <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="F112" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="F113" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="G113" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B114" s="2">
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D114" s="2">
-        <v>1</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="F114" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="G114" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B115" s="2">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D115" s="2">
-        <v>1</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B116" s="2">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D116" s="2">
-        <v>1</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="H116" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B117" s="2">
         <v>17</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D117" s="2">
-        <v>1</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="G117" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B118" s="2">
         <v>17</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D118" s="2">
         <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G118" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B119" s="2">
         <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F119" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="G119" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B120" s="2">
         <v>11</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D120" s="2">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="G120" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B121" s="2">
         <v>11</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D121" s="2">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="G121" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B122" s="2">
         <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="G122" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B123" s="2">
         <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D123" s="2">
-        <v>1</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="G123" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D124" s="2">
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="G124" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B125" s="2">
         <v>11</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D125" s="2">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F125" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B126" s="2">
         <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D126" s="2">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="G126" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B127" s="2">
         <v>11</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D127" s="2">
-        <v>1</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F127" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="G127" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B128" s="2">
         <v>11</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D128" s="2">
-        <v>1</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="F128" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F128" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="G128" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B129" s="2">
         <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D129" s="2">
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="G129" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B130" s="2">
-        <v>1</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D130" s="2">
-        <v>1</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="F130" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F130" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="G130" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D131" s="2">
-        <v>1</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="G131" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B132" s="2">
         <v>11</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D132" s="2">
-        <v>1</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="G132" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B133" s="2">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D133" s="2">
-        <v>1</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="G133" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B134" s="2">
         <v>11</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D134" s="2">
-        <v>1</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="F134" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F134" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="G134" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B135" s="2">
         <v>11</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D135" s="2">
-        <v>1</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="G135" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B136" s="2">
         <v>11</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D136" s="2">
-        <v>1</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="F136" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="G136" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B137" s="2">
         <v>11</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D137" s="2">
-        <v>1</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="G137" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B138" s="2">
         <v>11</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D138" s="2">
-        <v>1</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="F138" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F138" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="G138" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B139" s="2">
         <v>11</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D139" s="2">
-        <v>1</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="F139" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F139" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="G139" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B140" s="2">
         <v>11</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D140" s="2">
-        <v>1</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="F140" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="G140" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B141" s="2">
         <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="H141" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="G142" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D143" s="2">
         <v>2</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F143" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="G143" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B144" s="2">
         <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D144" s="2">
-        <v>1</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="G144" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B145" s="2">
         <v>3</v>
@@ -6226,931 +6392,939 @@
         <v>2</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="G145" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B146" s="2">
         <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D146" s="2">
         <v>2</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="G146" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B147" s="2">
         <v>14</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D147" s="2">
-        <v>1</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F147" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="G147" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B148" s="2">
         <v>3</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D148" s="2">
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="G148" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B149" s="2">
         <v>3</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D149" s="2">
-        <v>1</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F149" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="G149" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B150" s="2">
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D150" s="2">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>571</v>
-      </c>
       <c r="G150" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B151" s="2">
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D151" s="2">
-        <v>1</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F151" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B152" s="2">
         <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F152" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="G152" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B153" s="2">
         <v>3</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D153" s="2">
-        <v>1</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="G153" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B154" s="2">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D154" s="2">
         <v>2</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="H154" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B155" s="2">
         <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B156" s="2">
         <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="G156" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B157" s="2">
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D157" s="2">
         <v>2</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="G157" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B158" s="2">
         <v>3</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="G158" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B159" s="2">
         <v>3</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D159" s="2">
-        <v>1</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B160" s="2">
         <v>3</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D160" s="2">
         <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B161" s="2">
         <v>3</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D161" s="2">
         <v>2</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F161" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="G161" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B162" s="2">
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D162" s="2">
         <v>2</v>
       </c>
       <c r="E162" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B163" s="2">
         <v>16</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D163" s="2">
         <v>1</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B164" s="2">
         <v>16</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B165" s="2">
         <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B166" s="2">
         <v>16</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B167" s="2">
         <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B168" s="2">
         <v>16</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B169" s="2">
         <v>16</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B170" s="2">
         <v>16</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B171" s="2">
         <v>16</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B172" s="2">
         <v>16</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D172" s="2">
         <v>1</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B173" s="2">
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B174" s="2">
         <v>16</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B175" s="2">
         <v>16</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D175" s="2">
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B176" s="2">
         <v>16</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D176" s="2">
         <v>5</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B177" s="2">
         <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D177" s="2">
         <v>5</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B178" s="2">
         <v>16</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D178" s="2">
         <v>2</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B179" s="2">
         <v>16</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D179" s="2">
         <v>2</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F179" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B180" s="2">
         <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D180" s="2">
         <v>3</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F180" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{9AB1D862-1B9E-4F7E-AA65-A1BF40DD9546}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{44B9804C-21BE-4047-8C70-86A422DF398F}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{29083146-3F54-4CD6-A4BB-0F3886B575B3}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{7E364FE8-67AA-4165-A3BA-60D02FA1AC58}"/>
+    <hyperlink ref="I15" r:id="rId5" xr:uid="{0F06DDF2-3B31-40D1-977D-EA2791B1588D}"/>
+    <hyperlink ref="I20" r:id="rId6" xr:uid="{58930758-AD81-4796-A054-E8EE10A39BAB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/book.xlsx
+++ b/data/book.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF439DC-D380-41D3-B4BF-C845C528496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40FE5D6-9275-4086-8907-653EB5A513CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="22545" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="848">
   <si>
     <t>title</t>
   </si>
@@ -953,9 +945,6 @@
     <t>SBA0095</t>
   </si>
   <si>
-    <t>Dịch bệnh 189k</t>
-  </si>
-  <si>
     <t>Michael T. Osterholm , Mark Olshaker</t>
   </si>
   <si>
@@ -1234,9 +1223,6 @@
   </si>
   <si>
     <t>SBA0137</t>
-  </si>
-  <si>
-    <t>Bản Sắc 135k</t>
   </si>
   <si>
     <t>Francis Fukuyama</t>
@@ -2153,9 +2139,6 @@
     <t>https://pos.nvncdn.net/fd5775-40602/ps/20200130_bcR3v7yOovHVPKDfeb6oXVjD.jpg</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcToYDpV4lwlyUZvRR7VEHNsIXiiOxQk70eQ0NqbHvZ4RXegkDKxThfDWDsMKX2_ON78gNQ&amp;usqp=CAU</t>
-  </si>
-  <si>
     <t>https://pos.nvncdn.net/fd5775-40602/ps/20210321_zPFSkdWzHnvgSurzzKfmVm5C.png</t>
   </si>
   <si>
@@ -2184,13 +2167,487 @@
     <t>https://bizweb.dktcdn.net/100/197/269/products/mar…uyen-thong-giao-tiep-copy-min.jpg?v=1676284428930</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:AN…TBKu_U7ovE49dPvuC_xIFekzmKUM1UhENxqTkzF4&amp;usqp=CAU</t>
-  </si>
-  <si>
     <t>https://cdn0.fahasa.com/media/catalog/product/d/b/dbfe7b691289e6d7bf985.jpg</t>
   </si>
   <si>
     <t>https://bizweb.dktcdn.net/thumb/grande/100/197/269/products/truyen-thong-giao-tiep-outline-26-2-21-truyen-thong-giao-tiep-copy-min.jpg?v=1676284849053</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp7-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp12-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp5-13-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp3-11.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp11.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp10-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp4-12-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp6-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp9-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://hbr.org.vn/wp-content/uploads/2021/02/HBR-20-minute_ptp8-600x600.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/d8/02/80/f00f39b4b09a8539703d6127cd3648b9.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2020/11/Du-an-moi.png</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2023/02/Thiet-ke-chua-co-ten.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/12/78/0a/05c3662bee5f076f39020314875d8540.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2018/12/Cu%E1%BB%99c-%C4%90%E1%BB%9Di-B%E1%BA%A5t-T%E1%BB%AD-C%E1%BB%A7a-Henrietta-Lacks.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/d0/a0/9e/f2471cb39ae10b1ef7dd769beb266259.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/n/g/ng_i-ch_u-_-c_-bi_t-t_-duy.jpg</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/5045bd0bc192696d9a5bcf531ead3876</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2022/09/bia-sach-hanh-trinh-nhan-loai.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/d3/15/5a/2e856c5615a8f9bf7ae45056e5148fe0.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/a0/ec/a3/1f631f9a8872b31e02be2b57ada3e22d.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/6c/0f/5e/da8d7586e0b8054986af23faab49536b.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/28/cc/0d/d5e929e40bf10c5ebbd425a98f85b52c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ba/3a/6f/1ecdbc3115e534ad45bfda99c4f6d7bf.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/61/c2/9a/f500aa938ff8623c3629c4ebe7b37c56.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/a0/94/58/a55609b9bf1eccc43c8c2d7e66d17f3e.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e6/d6/dc/890a7547ca1d3a71b0fdc57264b1f39c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/51/d6/31/7258ac49eb4287cd847f62fd9c0e0c8c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/3b/31/ae/d599f789deccd0a3986571297718a072.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e8/5b/2c/993e2936ece7031352c213d52161b215.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e2/2b/0d/3f9366b8b0e8822930bb0cf91b63efa9.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/2f/d1/ca/ac26891109a41fbae2347bfb3214c621.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/w1200/media/catalog/product/s/u/su%20ky%20tu%20ma%20thien%20180k_biameem.u547.d20160822.t105353.692440.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/79/03/ba/e17932e884c9e4dc9c6d61974161e762.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/56/4c/3c/d854ef034441f728853ceb2d89506963.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/52/80/04/7f83a829f6533e885e4084104e5b789e.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2022/06/web-11.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/92/6f/88/0e8e45f67db498900c0982d485ddc72a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/4d/d3/09/74563cb5a4fe359ab774c74734368650.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/74/27/1d/0e3967dfb300a8f1d11c12fbfe5213d2.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2023/05/cuu-uoc-tang-Tu-Bach.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/a6/b4/af/3611037f7743049aabae3131108dfc25.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/0bbf0941e8a651ed1b207a76f13a6e88</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/49/f6/d1/32dac33298362a9d0aabc97c9af4ee43.png.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/f5/28/9d/627ef73bf698e9d3417c8c1418bb6877.JPG.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/c739bb1a6081609bdf6fec1b890327f6</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/5f/75/6f/7783511eac647512732a4430a730bdce.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/28/85/1d/e2193771b3b9ff26dc289cc0a1e80eb6.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/414/537/products/7cd30d34199775a1e6536f3c6a1feab7-1657783148069.jpg?v=1671347574700</t>
+  </si>
+  <si>
+    <t>https://omegaplus.vn/wp-content/uploads/2021/06/New-Project-2.png</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/414/537/products/image-230133-1684921941562.jpg?v=1684921945750</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/3e/55/92/14a8cacef9c6a81cf678c56c2e360d83.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://book365.vn/upload/uf/06c/7l6ijgj2ign7lyezl4i5zq9uoue6l5m4.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ef/75/33/28719255455cff8744b6c9168bd6fab9.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/bd/f4/bf/80f087a7966fdc7d74a281cdbd70231c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://newshop.vn/public/uploads/products/46888/sach-lieu-phap-mien-dich-buoc-dot-pha-trong-chua-tri-ung-thu.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/51/78/a9/cdba94edcf55d56b31ee2cca5a49f143.jpg.webp</t>
+  </si>
+  <si>
+    <t>Dịch bệnh - Kẻ thù nguy hiểm nhất</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/i/m/image_195509_1_49876.jpg</t>
+  </si>
+  <si>
+    <t>https://book365.vn/upload/uf/330/vxrawpkob0a3hthbre8f98bzgpbtaf4a.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e6/ee/37/eb0b322ec85aa1ae31a3826ce024d5db.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/b8/c9/70/f5c03a7cdc4d92bfe08ee99afd0b6f7f.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e2/bd/50/e5c6d0b565f36c4100fadcd8f843a683.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/i/m/image_195509_1_48232.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/93/99/87/9ec0b77c11b32c958e7cfa31a1592b20.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/a0/4b/ac/d40f954da522cc86c9b50b14e29ed38b.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/71/04/09/0f403729d5a65f3b105928665943de15.png.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/bc/16/de/3c74827479acc5a31458851875d7da36.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/00/bc/14/1ca75119e037fbb00ae7720e6168ae21.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/media/catalog/product/b/a/ban-ve-chinh-quyen.u5131.d20170424.t090214.12987.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/60/fd/7d/b01dc43b52096bdeea66bd59d2ca2eb0.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/9d/d0/32/1ac397648854daf9a60ba317bb1a76a8.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://nhasachphuongnam.com/images/detailed/240/Untitled-1_etve-dq.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/95/de/53/7cbd54f65b7021ff19ead1f0a5915f85.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ca/ef/cc/ddeffd2b4ed84325b9fde1f46e3f69e7.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.com/fd5775-40602/ps/20191108_pttgNsIARbLuxbbiZ28O80C1.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/59/2a/d2/66c582f5e79289901208292a45cbad38.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/70/bd/62/3b03569f390438a149e0041cbb4ac49d.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://book365.vn/upload/uf/ddf/rg96pn5owa9yfa4198nyfz9l4i8oaw9b.jpg</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.com/fd5775-40602/ps/20221212_djVt1O3oozOT5cpnxbeD2H4k.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/bf/ce/d5/f8a57e2729fdb922744b827d0259800d.jpg.webp</t>
+  </si>
+  <si>
+    <t>Bản Sắc - Nhu Cầu Phẩm Giá Và Chính Trị Phẫn Nộ</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/73/ad/18/d263a7cca8d5f2440ca705d3fb729580.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.com/fd5775-40602/ps/20200429_OmKdHJwaMBbI9HvPkgrANbdi.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/28/40/8e/7f7d01175664815e19637bfccc514310.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/07/20/61/45ed2da669bf6d14532bd28bb890fd53.JPG.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/f6/7e/91/17d6955191109cf449adda7df0a55cec.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/01/70/15/3522196f1bd5523c202d9dfcd8f64e5f.png.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/10/54/6d/888cab0224c15b2f1c8c76d0bd893b28.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/71/fa/0b/f2626621b812675591d82c5d1ca91681.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/5e/b5/17/369bc1e17d24fa594620965acd7aef1f.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/1c/62/40/e6bb7dea5238b14bdf50affbd5d16cac.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/77/c4/0c/2a55b438a19394b3d946720d70acc358.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/f3/59/86/3d565e6fcc7a52ea30fcea323c83db6c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/1f/e9/e4/51eaa1c7a027984dc58c3350b0f18436.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/c/a/cam-nang-so-cap-cuu-thuong-thuc-final-01.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/af/8d/ec/2aee55b6bd1b49926d4b95e0fbcc680a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/db/52/33/993036f1f670cd60182b9eac431c6db0.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/11/fb/db/05274b6c3bff200257adde91b6a7ba37.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/5b/fb/24/0466c2e0d0ba5331dd1e91c22158a830.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://product.hstatic.net/1000075554/product/image_223349_eac8503206fe4b2e86036d1e02c81859_7752d2ee355e4bfeaebc6038b6d3cd3e_1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/a8/89/10/0841ae980e9db976c54384bd5386525e.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/f6/bc/e0/7fbbd9738482e16d475412e867c8f34c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/8d/02/9d/c70edcead1ecd69b66494d2048bc071c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/sg-11134201-7qvdy-lhx1glkvg02a27</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/7c295943aa12cb8b9c0c71d3095dbfb7</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/de/26/a2/a6f2cb3580301612f7f5ceb1b0cb00f1.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/49/80/8a/83c109a36650e8e8fe34c7d72a5f5f3a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/53/88/cf/e55bfc4c38f8652e0c08f34233d686fe.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/4d/48/dd/05818336bc18ff38cd3c1a6a0a1d8fe4.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/17/36/a0/4d81d856fbce7152dbef5c54e895811a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/11/84/fd/0810ef66a35002ed4d6316e9257c9179.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ef/09/68/3b54b9c3525ac9c5b545ebee0a6de891.JPG.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/03/e9/31/108792f35e008bbc4a4238b3c0856353.PNG.webp</t>
+  </si>
+  <si>
+    <t>https://cf.shopee.vn/file/ebf0f61e57aa848a0d5b2cbe51bcdc9e</t>
+  </si>
+  <si>
+    <t>https://product.hstatic.net/1000075554/product/image_220722_40a04fab4afd4ae3a7ef97ad4ee37b9c_96901ca15ae340d39e70ef00eed61abf_1024x1024.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/58/58/f2/18837a2d45d6976844de054666291d9c.PNG.webp</t>
+  </si>
+  <si>
+    <t>https://bizweb.dktcdn.net/thumb/1024x1024/100/381/999/products/khi-hoi-tho-hoa-thinh-khong-tai-ban.jpg?v=1641568730463</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ee/0e/9f/e3c1de649118d00a52251ea28d20a488.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/14/cb/73/0bfd6c83d0478d63380c11080e8071a8.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/24/0e/e6/8f12257d3e87e5bdd51eca582d64fe07.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/2a/f9/ca/e9cc7b5d081d83478e2cc35504cb6a88.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/f9/b1/10/3e9e85e210a7226c956c1a2710859dc7.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://pos.nvncdn.com/fd5775-40602/ps/20200311_9T8hxX2TzAiHltGCSOVNWiV5.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/1f/89/c0/8b1df57ff4b2e303a5a9d379f6e2567b.png.webp</t>
+  </si>
+  <si>
+    <t>https://product.hstatic.net/1000075554/product/d4f886e8f64fa6aa9f91a9550526e0_grande_7004fbe6ab584b839714842b64c3e665_9548b08c07e84264876d63bfcd4d60f7_grande.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/4f/e4/47/a3e91e6594dcfafecb56c3054be44ba4.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/i/m/image_195509_1_31578.jpg</t>
+  </si>
+  <si>
+    <t>https://lzd-img-global.slatic.net/g/p/09213cdb8ef59b0238d21471261296b8.jpg_720x720q80.jpg_.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/11/40/27/53c5067f2149580321b7e7df75f26e30.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/23/da/a4/50c3e69456732e08ce62ab7dcacf600a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/9d/52/1a/8c9ab57a7d3c2e55a702cdcf66727663.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/80/5e/78/f71326de5806fa770ec79e837c63eb57.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/media/catalog/product/c/a/cach-mang-phap.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://book365.vn/upload/uf/f11/dewkeihodqbuvxcu2z3omr8easgj1cjv.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/7e/3f/44/a4097fe699d782f28a2e81f989b3595a.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/01/1f/7c/4ecaf8545e5963f29e92b003dce8cfb2.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/43/e5/5c/22ecebe7eb33395f2880418a6c0c1cc6.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://muasachhay.vn/wp-content/uploads/2019/08/xu-tram-huong-mua-sach-hay.png</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/e9/72/f1/9b9c9e72db92489971ae6dd38661d313.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/da/52/5d/734f18f24bbf477c534954d2b5117bc6.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/87/af/79/7ad5ef65eb00497aba23676879aff955.png.webp</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/h/a/hatgiong6_3.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/72/b6/3f/3ba1312ac0af7f0740c2b15d8e8f87d2.png.webp</t>
+  </si>
+  <si>
+    <t>https://ebdbook.vn/upload/stiengviet/kinangsong/hat-giong-tam-hon/hat-giong-tam-hon-tap-8-nhung-cau-chuyen-cuoc-song-tai-ban-2020/1-compressed.jpg?v=1.0.1</t>
+  </si>
+  <si>
+    <t>https://cdn0.fahasa.com/media/catalog/product/8/9/8935086855942.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/5d/3f/94/4bcebcc1c104e0ac77e58a317614dad4.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/09/8e/62/28976bb9312dd122b6957fcc226aa736.png.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/bf/57/14/ec9b5d6802548d0305fe39de87a0177b.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/9a/16/57/8daaa189c2a73b0937bdc24486290a02.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://www.khaitam.com/Data/Sites/1/Product/20663/hat-giong-tam-hon-14.png</t>
+  </si>
+  <si>
+    <t>https://307a0e78.vws.vegacdn.vn/view/v2/image/img.book/0/0/0/13668.jpg?v=3&amp;w=340&amp;h=497</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/13/91/32/5721bd11e8b5172adcafc4d67ab9e131.png.webp</t>
+  </si>
+  <si>
+    <t>https://www.nxbtre.com.vn/Images/Book/nxbtre_full_10412019_044159.jpg</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/20/43/ce/04b372151f02cedbc28898a2ba041c0d.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/ba/b0/63/9c87b732e40143f4a15de3276fbe032c.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/73/15/4a/0b6d7329a7d0eac18e2d4687cb123986.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/2c/fd/72/65e29fe3f7e775cff4666f732b0f5923.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://salt.tikicdn.com/cache/750x750/ts/product/84/7e/40/4977607011bc2c3cd0ebfd1ffe2a521b.jpg.webp</t>
   </si>
 </sst>
 </file>
@@ -2543,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -2611,10 +3068,10 @@
         <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2640,10 +3097,10 @@
         <v>98</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -2669,10 +3126,10 @@
         <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2698,13 +3155,13 @@
         <v>98</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2727,10 +3184,10 @@
         <v>98</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -2756,10 +3213,10 @@
         <v>98</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2785,10 +3242,10 @@
         <v>98</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -2814,10 +3271,10 @@
         <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2843,10 +3300,10 @@
         <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -2872,10 +3329,10 @@
         <v>98</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2901,10 +3358,10 @@
         <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -2930,10 +3387,10 @@
         <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
@@ -2959,10 +3416,10 @@
         <v>98</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -2988,10 +3445,10 @@
         <v>98</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>680</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -3017,10 +3474,10 @@
         <v>98</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -3046,10 +3503,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -3075,10 +3532,10 @@
         <v>98</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -3104,10 +3561,10 @@
         <v>98</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3133,21 +3590,21 @@
         <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -3162,10 +3619,10 @@
         <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -3176,7 +3633,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3191,13 +3648,13 @@
         <v>98</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
@@ -3205,7 +3662,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -3220,13 +3677,13 @@
         <v>98</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
@@ -3234,7 +3691,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3249,13 +3706,13 @@
         <v>98</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>102</v>
       </c>
@@ -3263,7 +3720,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
@@ -3278,10 +3735,10 @@
         <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3307,7 +3764,10 @@
         <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3333,7 +3793,10 @@
         <v>98</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3359,7 +3822,10 @@
         <v>98</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3385,10 +3851,13 @@
         <v>98</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>107</v>
       </c>
@@ -3411,7 +3880,10 @@
         <v>98</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3437,7 +3909,10 @@
         <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3463,10 +3938,13 @@
         <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
@@ -3489,10 +3967,13 @@
         <v>98</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>111</v>
       </c>
@@ -3515,10 +3996,13 @@
         <v>98</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -3541,10 +4025,13 @@
         <v>98</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
@@ -3567,10 +4054,13 @@
         <v>153</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
@@ -3593,10 +4083,13 @@
         <v>153</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -3619,10 +4112,13 @@
         <v>153</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>125</v>
       </c>
@@ -3645,10 +4141,13 @@
         <v>153</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>129</v>
       </c>
@@ -3671,10 +4170,13 @@
         <v>153</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>133</v>
       </c>
@@ -3697,10 +4199,13 @@
         <v>153</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>137</v>
       </c>
@@ -3723,10 +4228,13 @@
         <v>153</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>141</v>
       </c>
@@ -3749,10 +4257,13 @@
         <v>153</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>145</v>
       </c>
@@ -3775,10 +4286,13 @@
         <v>153</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>149</v>
       </c>
@@ -3801,10 +4315,13 @@
         <v>153</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>154</v>
       </c>
@@ -3827,10 +4344,13 @@
         <v>200</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -3853,10 +4373,13 @@
         <v>200</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>161</v>
       </c>
@@ -3879,10 +4402,13 @@
         <v>200</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>165</v>
       </c>
@@ -3905,10 +4431,13 @@
         <v>200</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -3931,10 +4460,13 @@
         <v>200</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>172</v>
       </c>
@@ -3957,10 +4489,13 @@
         <v>200</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>176</v>
       </c>
@@ -3983,10 +4518,13 @@
         <v>200</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>180</v>
       </c>
@@ -4009,10 +4547,13 @@
         <v>200</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>184</v>
       </c>
@@ -4035,10 +4576,13 @@
         <v>200</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>188</v>
       </c>
@@ -4061,10 +4605,13 @@
         <v>200</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>192</v>
       </c>
@@ -4087,10 +4634,13 @@
         <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>196</v>
       </c>
@@ -4113,10 +4663,13 @@
         <v>200</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>202</v>
       </c>
@@ -4139,10 +4692,13 @@
         <v>237</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>206</v>
       </c>
@@ -4165,10 +4721,13 @@
         <v>237</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>210</v>
       </c>
@@ -4191,10 +4750,13 @@
         <v>237</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>213</v>
       </c>
@@ -4217,10 +4779,13 @@
         <v>237</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>217</v>
       </c>
@@ -4243,10 +4808,13 @@
         <v>237</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>221</v>
       </c>
@@ -4269,10 +4837,13 @@
         <v>237</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -4295,10 +4866,13 @@
         <v>237</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>229</v>
       </c>
@@ -4321,10 +4895,13 @@
         <v>237</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>233</v>
       </c>
@@ -4347,10 +4924,13 @@
         <v>237</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>238</v>
       </c>
@@ -4373,10 +4953,13 @@
         <v>272</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>242</v>
       </c>
@@ -4399,10 +4982,13 @@
         <v>272</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>246</v>
       </c>
@@ -4425,10 +5011,13 @@
         <v>272</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>250</v>
       </c>
@@ -4451,10 +5040,13 @@
         <v>272</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>253</v>
       </c>
@@ -4477,10 +5069,13 @@
         <v>272</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>257</v>
       </c>
@@ -4503,10 +5098,13 @@
         <v>272</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>261</v>
       </c>
@@ -4529,10 +5127,13 @@
         <v>272</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>265</v>
       </c>
@@ -4555,10 +5156,13 @@
         <v>272</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>268</v>
       </c>
@@ -4581,10 +5185,13 @@
         <v>272</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>273</v>
       </c>
@@ -4601,16 +5208,19 @@
         <v>275</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>276</v>
       </c>
@@ -4627,16 +5237,19 @@
         <v>278</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="H77" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>279</v>
       </c>
@@ -4656,13 +5269,16 @@
         <v>282</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>283</v>
       </c>
@@ -4682,13 +5298,16 @@
         <v>286</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>287</v>
       </c>
@@ -4708,13 +5327,16 @@
         <v>290</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>291</v>
       </c>
@@ -4734,13 +5356,16 @@
         <v>294</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>295</v>
       </c>
@@ -4760,223 +5385,250 @@
         <v>298</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>299</v>
+        <v>746</v>
       </c>
       <c r="B83" s="2">
         <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="2">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="B84" s="2">
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D84" s="2">
         <v>2</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="B85" s="2">
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="B86" s="2">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="B87" s="2">
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="B88" s="2">
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="B89" s="2">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D89" s="2">
         <v>2</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="B90" s="2">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D90" s="2">
         <v>2</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="B91" s="2">
         <v>11</v>
@@ -4988,411 +5640,459 @@
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="B92" s="2">
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="B93" s="2">
         <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="G93" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="B95" s="2">
         <v>3</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="B96" s="2">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D96" s="2">
         <v>2</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="B97" s="2">
         <v>3</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D97" s="2">
         <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="B98" s="2">
         <v>3</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D98" s="2">
         <v>2</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="B99" s="2">
         <v>16</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="B100" s="2">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="B102" s="2">
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" s="2">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D102" s="2">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="B103" s="2">
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="2">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="B104" s="2">
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="B105" s="2">
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D105" s="2">
-        <v>1</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="G105" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>393</v>
+        <v>770</v>
       </c>
       <c r="B106" s="2">
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D106" s="2">
-        <v>1</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="G106" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="B107" s="2">
         <v>3</v>
@@ -5404,593 +6104,662 @@
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="B108" s="2">
         <v>3</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F108" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="G108" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="B109" s="2">
         <v>3</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D109" s="2">
-        <v>1</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="G109" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="B110" s="2">
         <v>3</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D110" s="2">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="G110" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="B111" s="2">
         <v>3</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D111" s="2">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="B112" s="2">
         <v>3</v>
       </c>
       <c r="C112" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="G112" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D113" s="2">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="B114" s="2">
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D114" s="2">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D114" s="2">
-        <v>1</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="G114" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="B115" s="2">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D115" s="2">
-        <v>1</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="G115" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="B116" s="2">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D116" s="2">
-        <v>1</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="H116" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="B117" s="2">
         <v>17</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D117" s="2">
-        <v>1</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="G117" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="B118" s="2">
         <v>17</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D118" s="2">
         <v>2</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="B119" s="2">
         <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D119" s="2">
         <v>2</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="B120" s="2">
         <v>11</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D120" s="2">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="B121" s="2">
         <v>11</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D121" s="2">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="B122" s="2">
         <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="s">
+      <c r="G122" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="B123" s="2">
         <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D123" s="2">
-        <v>1</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="G123" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="B124" s="2">
         <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D124" s="2">
         <v>2</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="B125" s="2">
         <v>11</v>
       </c>
       <c r="C125" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D125" s="2">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="G125" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="B126" s="2">
         <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D126" s="2">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="B127" s="2">
         <v>11</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D127" s="2">
-        <v>1</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="G127" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="B128" s="2">
         <v>11</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D128" s="2">
-        <v>1</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="B129" s="2">
         <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D129" s="2">
         <v>2</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="B130" s="2">
         <v>1</v>
@@ -6002,385 +6771,430 @@
         <v>1</v>
       </c>
       <c r="E130" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B131" s="2">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D131" s="2">
-        <v>1</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="G131" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="B132" s="2">
         <v>11</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D132" s="2">
-        <v>1</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="G132" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="B133" s="2">
         <v>4</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D133" s="2">
-        <v>1</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="G133" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="B134" s="2">
         <v>11</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D134" s="2">
-        <v>1</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="G134" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="B135" s="2">
         <v>11</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D135" s="2">
-        <v>1</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="G135" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="B136" s="2">
         <v>11</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F136" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D136" s="2">
-        <v>1</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="G136" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="B137" s="2">
         <v>11</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D137" s="2">
-        <v>1</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="G137" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="B138" s="2">
         <v>11</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D138" s="2">
-        <v>1</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="G138" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="B139" s="2">
         <v>11</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D139" s="2">
-        <v>1</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="G139" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="B140" s="2">
         <v>11</v>
       </c>
       <c r="C140" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D140" s="2">
-        <v>1</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="G140" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="B141" s="2">
         <v>4</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D141" s="2">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="H141" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D142" s="2">
         <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D143" s="2">
         <v>2</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="B144" s="2">
         <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D144" s="2">
-        <v>1</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="G144" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="B145" s="2">
         <v>3</v>
@@ -6392,469 +7206,523 @@
         <v>2</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="B146" s="2">
         <v>6</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D146" s="2">
         <v>2</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="B147" s="2">
         <v>14</v>
       </c>
       <c r="C147" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D147" s="2">
-        <v>1</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="G147" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="B148" s="2">
         <v>3</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D148" s="2">
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="G148" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="B149" s="2">
         <v>3</v>
       </c>
       <c r="C149" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D149" s="2">
-        <v>1</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="B150" s="2">
         <v>4</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D150" s="2">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D150" s="2">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="G150" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="B151" s="2">
         <v>4</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D151" s="2">
-        <v>1</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="G151" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="B152" s="2">
         <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D152" s="2">
         <v>1</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="B153" s="2">
         <v>3</v>
       </c>
       <c r="C153" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D153" s="2">
-        <v>1</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="G153" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="B154" s="2">
         <v>4</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D154" s="2">
         <v>2</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="H154" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="B155" s="2">
         <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="B156" s="2">
         <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D156" s="2">
         <v>2</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="B157" s="2">
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D157" s="2">
         <v>2</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="B158" s="2">
         <v>3</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D158" s="2">
         <v>2</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="B159" s="2">
         <v>3</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D159" s="2">
-        <v>1</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="G159" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="B160" s="2">
         <v>3</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D160" s="2">
         <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="B161" s="2">
         <v>3</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D161" s="2">
         <v>2</v>
       </c>
       <c r="E161" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="B162" s="2">
         <v>6</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D162" s="2">
         <v>2</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F162" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="H162" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B163" s="2">
         <v>16</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D163" s="2">
         <v>1</v>
@@ -6863,24 +7731,27 @@
         <v>201</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B164" s="2">
         <v>16</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -6889,24 +7760,27 @@
         <v>201</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B165" s="2">
         <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D165" s="2">
         <v>1</v>
@@ -6915,24 +7789,27 @@
         <v>201</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B166" s="2">
         <v>16</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D166" s="2">
         <v>1</v>
@@ -6941,24 +7818,27 @@
         <v>201</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B167" s="2">
         <v>16</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D167" s="2">
         <v>1</v>
@@ -6967,24 +7847,27 @@
         <v>201</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B168" s="2">
         <v>16</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D168" s="2">
         <v>1</v>
@@ -6993,24 +7876,27 @@
         <v>201</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H168" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>632</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="B169" s="2">
         <v>16</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D169" s="2">
         <v>1</v>
@@ -7019,24 +7905,27 @@
         <v>201</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B170" s="2">
         <v>16</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D170" s="2">
         <v>1</v>
@@ -7045,24 +7934,27 @@
         <v>201</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B171" s="2">
         <v>16</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D171" s="2">
         <v>1</v>
@@ -7071,24 +7963,27 @@
         <v>201</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B172" s="2">
         <v>16</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D172" s="2">
         <v>1</v>
@@ -7097,24 +7992,27 @@
         <v>201</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B173" s="2">
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D173" s="2">
         <v>1</v>
@@ -7123,24 +8021,27 @@
         <v>201</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B174" s="2">
         <v>16</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D174" s="2">
         <v>1</v>
@@ -7149,169 +8050,190 @@
         <v>201</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B175" s="2">
         <v>16</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D175" s="2">
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B176" s="2">
         <v>16</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D176" s="2">
         <v>5</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B177" s="2">
         <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D177" s="2">
         <v>5</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B178" s="2">
         <v>16</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D178" s="2">
         <v>2</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B179" s="2">
         <v>16</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D179" s="2">
         <v>2</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B180" s="2">
         <v>16</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D180" s="2">
         <v>3</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>98</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -7321,10 +8243,11 @@
     <hyperlink ref="I4" r:id="rId2" xr:uid="{44B9804C-21BE-4047-8C70-86A422DF398F}"/>
     <hyperlink ref="I8" r:id="rId3" xr:uid="{29083146-3F54-4CD6-A4BB-0F3886B575B3}"/>
     <hyperlink ref="I14" r:id="rId4" xr:uid="{7E364FE8-67AA-4165-A3BA-60D02FA1AC58}"/>
-    <hyperlink ref="I15" r:id="rId5" xr:uid="{0F06DDF2-3B31-40D1-977D-EA2791B1588D}"/>
-    <hyperlink ref="I20" r:id="rId6" xr:uid="{58930758-AD81-4796-A054-E8EE10A39BAB}"/>
+    <hyperlink ref="I20" r:id="rId5" xr:uid="{58930758-AD81-4796-A054-E8EE10A39BAB}"/>
+    <hyperlink ref="I30" r:id="rId6" xr:uid="{66309F7A-760C-4706-A3ED-B786C830301C}"/>
+    <hyperlink ref="I33" r:id="rId7" xr:uid="{C3DBFB46-E462-4C60-B63F-CAC6A6D652D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>